--- a/knowledge-base/trunk/data/decision-support-rules/Pharmacogenomics decision support spreadsheet_v2.xlsx
+++ b/knowledge-base/trunk/data/decision-support-rules/Pharmacogenomics decision support spreadsheet_v2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr showInkAnnotation="0" codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="630" windowWidth="10215" windowHeight="2685"/>
+    <workbookView xWindow="270" yWindow="630" windowWidth="10215" windowHeight="2685" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="CDS rules" sheetId="1" r:id="rId1"/>
@@ -2224,9 +2224,6 @@
     <t>Clinical effect (S): long-standing discomfort (&gt; 168 hr), permanent symptom or invalidating injury e.g. failure of prophylaxis of atrial fibrillation; venous thromboembolism; decreased effect of clopidogrel on inhibition of platelet aggregation; ADE resulting from increased bioavailability of phenytoin; INR &gt; 6.0; neutropenia 0.5-1.0x10^9/l; leucopenia 1.0-2.0x10^9/l; thrombocytopenia 25-50x10^9/l; severe diarrhea </t>
   </si>
   <si>
-    <t>has exactly 2 CYP2C19_star_17 or has some CYP2C19_star_17 and has some CYP2C19_star_1</t>
-  </si>
-  <si>
     <t>http://www.pharmgkb.org/guideline/PA166104993
 http://www.pharmgkb.org/download.do?objCls=Attachment&amp;objId=GuidelinesHLABallopurinolACR.pdf</t>
   </si>
@@ -2253,9 +2250,6 @@
     <t>Two decreased-activity (*9, *10, *17, *29, *36, *41) alleles or carrying one active (*1, *2, *33, *35) and one inactive (*3-*8, *11-*16, *19-*21, *38, *40, *42) allele, or carrying one decreased-activity (*9, *10, *17, *29, *36, *41) and one inactive (*3-*8, *11-*16, *19-*21, *38, *40, *42) allele</t>
   </si>
   <si>
-    <t>has exactly 2 (CYP2D6_star_9 or CYP2D6_star_10 or CYP2D6_star_17 or CYP2D6_star_29 or CYP2D6_star_36 or CYP2D6_star_41) or has some (CYP2D6_star_1 or CYP2D6_star_2 or CYP2D6_star_33 or CYP2D6_star_35 or CYP2D6_star_9 or CYP2D6_star_10 or CYP2D6_star_17 or CYP2D6_star_29 or CYP2D6_star_36 or CYP2D6_star_41) and has some (CYP2D6_star_3 or CYP2D6_star_4 or CYP2D6_star_5 or CYP2D6_star_6 or CYP2D6_star_7 or CYP2D6_star_8 or CYP2D6_star_11 or CYP2D6_star_12 or CYP2D6_star_13 or CYP2D6_star_14 or CYP2D6_star_15 or CYP2D6_star_16 or CYP2D6_star_19 or CYP2D6_star_20 or CYP2D6_star_21 or CYP2D6_star_38 or CYP2D6_star_40 or CYP2D6_star_42)</t>
-  </si>
-  <si>
     <t>The best way to estimate the anticipated stable dose of warfarin is to use the algorithms available on http://www.warfarindosing.org </t>
   </si>
   <si>
@@ -2766,6 +2760,12 @@
   <si>
     <t>This group comprises hormonal preparations, which are used as contraceptives. Similar hormonal preparations, which are used for the treatment of e.g. menopausal symptoms and menstrual irregularities, are classified in G03F.
 Combinations of cyproterone and estrogen also used as contraceptives are, however, classified in G03HB. Intravaginal and intrauterine devices containing hormones are classified in G02B. Transdermal patches for contraception are classified here. The DDDs are based on use as contraceptives. The DDDs of combined preparations of estrogen and progestogen and plain progestogen products are based on use in menstrual cycles of 28 days. Thus, the DDD is 0.75 and 1 UD for 21 and 28 tablets cycle package, respectively. The same principle is used for transdermal patches. The DDDs for preparations only used in postcoital contraception are based on the course dose.</t>
+  </si>
+  <si>
+    <t>has exactly 2 (CYP2D6_star_9 or CYP2D6_star_10 or CYP2D6_star_17 or CYP2D6_star_29 or CYP2D6_star_36 or CYP2D6_star_41) or (has some (CYP2D6_star_1 or CYP2D6_star_2 or CYP2D6_star_33 or CYP2D6_star_35 or CYP2D6_star_9 or CYP2D6_star_10 or CYP2D6_star_17 or CYP2D6_star_29 or CYP2D6_star_36 or CYP2D6_star_41) and has some (CYP2D6_star_3 or CYP2D6_star_4 or CYP2D6_star_5 or CYP2D6_star_6 or CYP2D6_star_7 or CYP2D6_star_8 or CYP2D6_star_11 or CYP2D6_star_12 or CYP2D6_star_13 or CYP2D6_star_14 or CYP2D6_star_15 or CYP2D6_star_16 or CYP2D6_star_19 or CYP2D6_star_20 or CYP2D6_star_21 or CYP2D6_star_38 or CYP2D6_star_40 or CYP2D6_star_42))</t>
+  </si>
+  <si>
+    <t>has exactly 2 CYP2C19_star_17 or (has some CYP2C19_star_17 and has some CYP2C19_star_1)</t>
   </si>
 </sst>
 </file>
@@ -4018,9 +4018,9 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:U305"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U2" sqref="U2"/>
+    <sheetView topLeftCell="B1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G104" sqref="G104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="76.5" customHeight="1"/>
@@ -4174,7 +4174,7 @@
         <v>15</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F3" s="24" t="s">
         <v>23</v>
@@ -4259,7 +4259,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="76.5" customHeight="1">
+    <row r="5" spans="1:21" ht="96" customHeight="1">
       <c r="A5" s="93" t="str">
         <f t="shared" si="0"/>
         <v>human triggering CDS rule 4</v>
@@ -4309,7 +4309,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="76.5" customHeight="1">
+    <row r="6" spans="1:21" ht="114.75" customHeight="1">
       <c r="A6" s="93" t="str">
         <f t="shared" si="0"/>
         <v>human triggering CDS rule 5</v>
@@ -4359,7 +4359,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="76.5" customHeight="1">
+    <row r="7" spans="1:21" ht="89.25" customHeight="1">
       <c r="A7" s="93" t="str">
         <f t="shared" si="0"/>
         <v>human triggering CDS rule 6</v>
@@ -5028,7 +5028,7 @@
         <v>225</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="H20" s="16" t="s">
         <v>53</v>
@@ -5076,7 +5076,7 @@
         <v>226</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="H21" s="16" t="s">
         <v>53</v>
@@ -5124,7 +5124,7 @@
         <v>227</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="H22" s="16" t="s">
         <v>229</v>
@@ -5172,7 +5172,7 @@
         <v>228</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="H23" s="37" t="s">
         <v>229</v>
@@ -5203,7 +5203,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="76.5" customHeight="1">
+    <row r="24" spans="1:20" ht="49.5" customHeight="1">
       <c r="A24" s="93" t="str">
         <f t="shared" si="0"/>
         <v>human triggering CDS rule 23</v>
@@ -5254,7 +5254,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="76.5" customHeight="1">
+    <row r="25" spans="1:20" ht="104.25" customHeight="1">
       <c r="A25" s="93" t="str">
         <f t="shared" si="0"/>
         <v>human triggering CDS rule 24</v>
@@ -5405,7 +5405,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="55.5" customHeight="1">
+    <row r="28" spans="1:20" ht="147" customHeight="1">
       <c r="A28" s="93" t="str">
         <f t="shared" si="0"/>
         <v>human triggering CDS rule 27</v>
@@ -5454,7 +5454,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="29" spans="1:20" s="13" customFormat="1" ht="98.25" customHeight="1">
+    <row r="29" spans="1:20" s="13" customFormat="1" ht="106.5" customHeight="1">
       <c r="A29" s="94" t="str">
         <f t="shared" si="0"/>
         <v>human triggering CDS rule 28</v>
@@ -5814,7 +5814,7 @@
         <v>184</v>
       </c>
       <c r="F36" s="24" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="G36" s="20" t="s">
         <v>560</v>
@@ -5868,7 +5868,7 @@
         <v>185</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="G37" s="26" t="s">
         <v>562</v>
@@ -5923,7 +5923,7 @@
         <v>184</v>
       </c>
       <c r="F38" s="24" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="G38" s="20" t="s">
         <v>560</v>
@@ -5974,7 +5974,7 @@
         <v>185</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="G39" s="26" t="s">
         <v>562</v>
@@ -6026,7 +6026,7 @@
         <v>184</v>
       </c>
       <c r="F40" s="24" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="G40" s="20" t="s">
         <v>560</v>
@@ -6077,7 +6077,7 @@
         <v>185</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="G41" s="26" t="s">
         <v>562</v>
@@ -6129,7 +6129,7 @@
         <v>499</v>
       </c>
       <c r="F42" s="24" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="G42" s="20" t="s">
         <v>564</v>
@@ -6180,7 +6180,7 @@
         <v>500</v>
       </c>
       <c r="F43" s="24" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="G43" s="20" t="s">
         <v>565</v>
@@ -6231,7 +6231,7 @@
         <v>501</v>
       </c>
       <c r="F44" s="24" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="G44" s="20" t="s">
         <v>566</v>
@@ -6282,7 +6282,7 @@
         <v>502</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="G45" s="26" t="s">
         <v>567</v>
@@ -6333,7 +6333,7 @@
         <v>83</v>
       </c>
       <c r="F46" s="24" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="G46" s="14" t="s">
         <v>562</v>
@@ -6384,7 +6384,7 @@
         <v>85</v>
       </c>
       <c r="F47" s="71" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="G47" s="14" t="s">
         <v>560</v>
@@ -6435,7 +6435,7 @@
         <v>87</v>
       </c>
       <c r="F48" s="75" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="G48" s="13" t="s">
         <v>557</v>
@@ -6620,7 +6620,7 @@
         <v>236</v>
       </c>
       <c r="F52" s="24" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="G52" s="14" t="s">
         <v>562</v>
@@ -6650,7 +6650,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="72">
+    <row r="53" spans="1:20" ht="324">
       <c r="A53" s="93" t="str">
         <f t="shared" si="0"/>
         <v>human triggering CDS rule 52</v>
@@ -6668,7 +6668,7 @@
         <v>237</v>
       </c>
       <c r="F53" s="71" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="G53" s="14" t="s">
         <v>560</v>
@@ -6716,7 +6716,7 @@
         <v>232</v>
       </c>
       <c r="F54" s="75" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="G54" s="13" t="s">
         <v>557</v>
@@ -6769,7 +6769,7 @@
         <v>83</v>
       </c>
       <c r="F55" s="24" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="G55" s="14" t="s">
         <v>562</v>
@@ -6799,7 +6799,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="84">
+    <row r="56" spans="1:20" ht="348">
       <c r="A56" s="93" t="str">
         <f t="shared" si="0"/>
         <v>human triggering CDS rule 55</v>
@@ -6817,7 +6817,7 @@
         <v>85</v>
       </c>
       <c r="F56" s="71" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="G56" s="14" t="s">
         <v>560</v>
@@ -6865,7 +6865,7 @@
         <v>87</v>
       </c>
       <c r="F57" s="75" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="G57" s="13" t="s">
         <v>557</v>
@@ -7064,7 +7064,7 @@
         <v>83</v>
       </c>
       <c r="F61" s="24" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="G61" s="14" t="s">
         <v>562</v>
@@ -7094,7 +7094,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="102">
+    <row r="62" spans="1:20" ht="348">
       <c r="A62" s="93" t="str">
         <f t="shared" si="0"/>
         <v>human triggering CDS rule 61</v>
@@ -7112,7 +7112,7 @@
         <v>85</v>
       </c>
       <c r="F62" s="71" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="G62" s="14" t="s">
         <v>560</v>
@@ -7160,7 +7160,7 @@
         <v>87</v>
       </c>
       <c r="F63" s="75" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="G63" s="13" t="s">
         <v>557</v>
@@ -7213,7 +7213,7 @@
         <v>83</v>
       </c>
       <c r="F64" s="24" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="G64" s="14" t="s">
         <v>562</v>
@@ -7243,7 +7243,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="114.75">
+    <row r="65" spans="1:20" ht="348">
       <c r="A65" s="93" t="str">
         <f t="shared" si="0"/>
         <v>human triggering CDS rule 64</v>
@@ -7261,7 +7261,7 @@
         <v>85</v>
       </c>
       <c r="F65" s="71" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="G65" s="14" t="s">
         <v>560</v>
@@ -7309,7 +7309,7 @@
         <v>87</v>
       </c>
       <c r="F66" s="75" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="G66" s="13" t="s">
         <v>557</v>
@@ -7589,7 +7589,7 @@
         <v>281</v>
       </c>
       <c r="F72" s="71" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="G72" s="14" t="s">
         <v>562</v>
@@ -7643,7 +7643,7 @@
         <v>282</v>
       </c>
       <c r="F73" s="75" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="G73" s="13" t="s">
         <v>560</v>
@@ -7698,7 +7698,7 @@
         <v>83</v>
       </c>
       <c r="F74" s="24" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="G74" s="14" t="s">
         <v>562</v>
@@ -7746,7 +7746,7 @@
         <v>85</v>
       </c>
       <c r="F75" s="71" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="G75" s="14" t="s">
         <v>560</v>
@@ -7794,7 +7794,7 @@
         <v>87</v>
       </c>
       <c r="F76" s="75" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="G76" s="13" t="s">
         <v>557</v>
@@ -7921,7 +7921,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="76.5" customHeight="1">
+    <row r="79" spans="1:20" ht="101.25" customHeight="1">
       <c r="A79" s="93" t="str">
         <f t="shared" si="1"/>
         <v>human triggering CDS rule 78</v>
@@ -7969,7 +7969,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="76.5" customHeight="1">
+    <row r="80" spans="1:20" ht="157.5" customHeight="1">
       <c r="A80" s="93" t="str">
         <f t="shared" si="1"/>
         <v>human triggering CDS rule 79</v>
@@ -8085,7 +8085,7 @@
         <v>83</v>
       </c>
       <c r="F82" s="24" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="G82" s="14" t="s">
         <v>562</v>
@@ -8115,7 +8115,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="102">
+    <row r="83" spans="1:20" ht="348">
       <c r="A83" s="93" t="str">
         <f t="shared" si="1"/>
         <v>human triggering CDS rule 82</v>
@@ -8133,7 +8133,7 @@
         <v>85</v>
       </c>
       <c r="F83" s="71" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="G83" s="14" t="s">
         <v>560</v>
@@ -8181,7 +8181,7 @@
         <v>87</v>
       </c>
       <c r="F84" s="75" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="G84" s="13" t="s">
         <v>557</v>
@@ -8234,7 +8234,7 @@
         <v>307</v>
       </c>
       <c r="F85" s="73" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="H85" s="63" t="s">
         <v>233</v>
@@ -8720,7 +8720,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="165.75">
+    <row r="96" spans="1:20" ht="336">
       <c r="A96" s="93" t="str">
         <f t="shared" si="1"/>
         <v>human triggering CDS rule 95</v>
@@ -8738,7 +8738,7 @@
         <v>281</v>
       </c>
       <c r="F96" s="71" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="G96" s="14" t="s">
         <v>562</v>
@@ -8789,7 +8789,7 @@
         <v>282</v>
       </c>
       <c r="F97" s="75" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="G97" s="13" t="s">
         <v>560</v>
@@ -8988,7 +8988,7 @@
         <v>281</v>
       </c>
       <c r="F101" s="71" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="G101" s="14" t="s">
         <v>562</v>
@@ -9039,7 +9039,7 @@
         <v>282</v>
       </c>
       <c r="F102" s="75" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="G102" s="13" t="s">
         <v>560</v>
@@ -9092,7 +9092,7 @@
         <v>83</v>
       </c>
       <c r="F103" s="24" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="G103" s="14" t="s">
         <v>562</v>
@@ -9122,7 +9122,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="84">
+    <row r="104" spans="1:20" ht="348">
       <c r="A104" s="93" t="str">
         <f t="shared" si="1"/>
         <v>human triggering CDS rule 103</v>
@@ -9140,7 +9140,7 @@
         <v>85</v>
       </c>
       <c r="F104" s="71" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="G104" s="14" t="s">
         <v>560</v>
@@ -9188,7 +9188,7 @@
         <v>87</v>
       </c>
       <c r="F105" s="75" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="G105" s="13" t="s">
         <v>557</v>
@@ -9271,7 +9271,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="107" spans="1:20" ht="76.5" customHeight="1">
+    <row r="107" spans="1:20" ht="118.5" customHeight="1">
       <c r="A107" s="93" t="str">
         <f t="shared" si="1"/>
         <v>human triggering CDS rule 106</v>
@@ -9417,7 +9417,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="110" spans="1:20" ht="76.5" customHeight="1">
+    <row r="110" spans="1:20" ht="132" customHeight="1">
       <c r="A110" s="93" t="str">
         <f t="shared" si="1"/>
         <v>human triggering CDS rule 109</v>
@@ -9884,7 +9884,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="120" spans="1:20" ht="76.5" customHeight="1">
+    <row r="120" spans="1:20" ht="98.25" customHeight="1">
       <c r="A120" s="93" t="str">
         <f t="shared" si="1"/>
         <v>human triggering CDS rule 119</v>
@@ -10176,7 +10176,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="126" spans="1:20" ht="76.5" customHeight="1">
+    <row r="126" spans="1:20" ht="103.5" customHeight="1">
       <c r="A126" s="93" t="str">
         <f t="shared" si="1"/>
         <v>human triggering CDS rule 125</v>
@@ -10322,7 +10322,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="129" spans="1:20" ht="76.5" customHeight="1">
+    <row r="129" spans="1:20" ht="105" customHeight="1">
       <c r="A129" s="93" t="str">
         <f t="shared" si="1"/>
         <v>human triggering CDS rule 128</v>
@@ -10695,7 +10695,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="137" spans="1:20" ht="76.5" customHeight="1">
+    <row r="137" spans="1:20" ht="98.25" customHeight="1">
       <c r="A137" s="93" t="str">
         <f t="shared" si="2"/>
         <v>human triggering CDS rule 136</v>
@@ -10793,7 +10793,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="139" spans="1:20" ht="76.5" customHeight="1">
+    <row r="139" spans="1:20" ht="108" customHeight="1">
       <c r="A139" s="93" t="str">
         <f t="shared" si="2"/>
         <v>human triggering CDS rule 138</v>
@@ -10811,7 +10811,7 @@
         <v>83</v>
       </c>
       <c r="F139" s="24" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="G139" s="14" t="s">
         <v>562</v>
@@ -10841,7 +10841,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="140" spans="1:20" ht="76.5" customHeight="1">
+    <row r="140" spans="1:20" ht="120" customHeight="1">
       <c r="A140" s="93" t="str">
         <f t="shared" si="2"/>
         <v>human triggering CDS rule 139</v>
@@ -10859,7 +10859,7 @@
         <v>85</v>
       </c>
       <c r="F140" s="71" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="G140" s="14" t="s">
         <v>560</v>
@@ -10889,7 +10889,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="141" spans="1:20" s="13" customFormat="1" ht="76.5" customHeight="1">
+    <row r="141" spans="1:20" s="13" customFormat="1" ht="98.25" customHeight="1">
       <c r="A141" s="94" t="str">
         <f t="shared" si="2"/>
         <v>human triggering CDS rule 140</v>
@@ -10907,7 +10907,7 @@
         <v>87</v>
       </c>
       <c r="F141" s="75" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="G141" s="13" t="s">
         <v>557</v>
@@ -10960,7 +10960,7 @@
         <v>378</v>
       </c>
       <c r="F142" s="24" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="G142" s="14" t="s">
         <v>562</v>
@@ -10990,7 +10990,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="143" spans="1:20" ht="72">
+    <row r="143" spans="1:20" ht="312">
       <c r="A143" s="93" t="str">
         <f t="shared" si="2"/>
         <v>human triggering CDS rule 142</v>
@@ -11008,7 +11008,7 @@
         <v>387</v>
       </c>
       <c r="F143" s="71" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="G143" s="14" t="s">
         <v>560</v>
@@ -11056,7 +11056,7 @@
         <v>379</v>
       </c>
       <c r="F144" s="75" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="G144" s="13" t="s">
         <v>557</v>
@@ -11109,7 +11109,7 @@
         <v>378</v>
       </c>
       <c r="F145" s="24" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="G145" s="14" t="s">
         <v>562</v>
@@ -11139,7 +11139,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="146" spans="1:20" ht="72">
+    <row r="146" spans="1:20" ht="312">
       <c r="A146" s="93" t="str">
         <f t="shared" si="2"/>
         <v>human triggering CDS rule 145</v>
@@ -11157,7 +11157,7 @@
         <v>387</v>
       </c>
       <c r="F146" s="71" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="G146" s="14" t="s">
         <v>560</v>
@@ -11205,7 +11205,7 @@
         <v>379</v>
       </c>
       <c r="F147" s="75" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="G147" s="13" t="s">
         <v>557</v>
@@ -11258,7 +11258,7 @@
         <v>378</v>
       </c>
       <c r="F148" s="24" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="G148" s="14" t="s">
         <v>562</v>
@@ -11306,7 +11306,7 @@
         <v>387</v>
       </c>
       <c r="F149" s="71" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="G149" s="14" t="s">
         <v>560</v>
@@ -11354,7 +11354,7 @@
         <v>379</v>
       </c>
       <c r="F150" s="75" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="G150" s="13" t="s">
         <v>557</v>
@@ -11407,7 +11407,7 @@
         <v>378</v>
       </c>
       <c r="F151" s="24" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="G151" s="14" t="s">
         <v>562</v>
@@ -11455,7 +11455,7 @@
         <v>387</v>
       </c>
       <c r="F152" s="71" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="G152" s="14" t="s">
         <v>560</v>
@@ -11503,7 +11503,7 @@
         <v>379</v>
       </c>
       <c r="F153" s="75" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="G153" s="13" t="s">
         <v>557</v>
@@ -11556,7 +11556,7 @@
         <v>378</v>
       </c>
       <c r="F154" s="24" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="G154" s="14" t="s">
         <v>562</v>
@@ -11604,7 +11604,7 @@
         <v>387</v>
       </c>
       <c r="F155" s="71" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="G155" s="14" t="s">
         <v>560</v>
@@ -11652,7 +11652,7 @@
         <v>379</v>
       </c>
       <c r="F156" s="75" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="G156" s="13" t="s">
         <v>557</v>
@@ -11705,7 +11705,7 @@
         <v>378</v>
       </c>
       <c r="F157" s="24" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="G157" s="14" t="s">
         <v>562</v>
@@ -11753,7 +11753,7 @@
         <v>387</v>
       </c>
       <c r="F158" s="71" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="G158" s="14" t="s">
         <v>560</v>
@@ -11801,7 +11801,7 @@
         <v>404</v>
       </c>
       <c r="F159" s="75" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="G159" s="13" t="s">
         <v>557</v>
@@ -11854,7 +11854,7 @@
         <v>378</v>
       </c>
       <c r="F160" s="24" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="G160" s="14" t="s">
         <v>562</v>
@@ -11884,7 +11884,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="161" spans="1:20" ht="72">
+    <row r="161" spans="1:20" ht="312">
       <c r="A161" s="93" t="str">
         <f t="shared" si="2"/>
         <v>human triggering CDS rule 160</v>
@@ -11902,7 +11902,7 @@
         <v>387</v>
       </c>
       <c r="F161" s="71" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="G161" s="14" t="s">
         <v>560</v>
@@ -11950,7 +11950,7 @@
         <v>404</v>
       </c>
       <c r="F162" s="75" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="G162" s="13" t="s">
         <v>557</v>
@@ -12003,7 +12003,7 @@
         <v>378</v>
       </c>
       <c r="F163" s="24" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="G163" s="14" t="s">
         <v>562</v>
@@ -12051,7 +12051,7 @@
         <v>387</v>
       </c>
       <c r="F164" s="71" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="G164" s="14" t="s">
         <v>560</v>
@@ -12099,7 +12099,7 @@
         <v>404</v>
       </c>
       <c r="F165" s="75" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="G165" s="13" t="s">
         <v>557</v>
@@ -12199,7 +12199,7 @@
         <v>83</v>
       </c>
       <c r="F167" s="24" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="G167" s="14" t="s">
         <v>562</v>
@@ -12247,7 +12247,7 @@
         <v>423</v>
       </c>
       <c r="F168" s="71" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="G168" s="14" t="s">
         <v>560</v>
@@ -12295,7 +12295,7 @@
         <v>404</v>
       </c>
       <c r="F169" s="75" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="G169" s="13" t="s">
         <v>557</v>
@@ -12348,7 +12348,7 @@
         <v>83</v>
       </c>
       <c r="F170" s="24" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="G170" s="14" t="s">
         <v>562</v>
@@ -12396,7 +12396,7 @@
         <v>423</v>
       </c>
       <c r="F171" s="71" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="G171" s="14" t="s">
         <v>560</v>
@@ -12444,7 +12444,7 @@
         <v>404</v>
       </c>
       <c r="F172" s="75" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="G172" s="13" t="s">
         <v>557</v>
@@ -12497,7 +12497,7 @@
         <v>83</v>
       </c>
       <c r="F173" s="24" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="G173" s="14" t="s">
         <v>562</v>
@@ -12545,7 +12545,7 @@
         <v>423</v>
       </c>
       <c r="F174" s="71" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="G174" s="14" t="s">
         <v>560</v>
@@ -12593,7 +12593,7 @@
         <v>404</v>
       </c>
       <c r="F175" s="75" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="G175" s="13" t="s">
         <v>557</v>
@@ -12646,7 +12646,7 @@
         <v>83</v>
       </c>
       <c r="F176" s="24" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="G176" s="14" t="s">
         <v>562</v>
@@ -12694,7 +12694,7 @@
         <v>423</v>
       </c>
       <c r="F177" s="71" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="G177" s="14" t="s">
         <v>560</v>
@@ -12742,7 +12742,7 @@
         <v>404</v>
       </c>
       <c r="F178" s="75" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="G178" s="13" t="s">
         <v>557</v>
@@ -12795,7 +12795,7 @@
         <v>83</v>
       </c>
       <c r="F179" s="24" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="G179" s="14" t="s">
         <v>562</v>
@@ -12843,7 +12843,7 @@
         <v>423</v>
       </c>
       <c r="F180" s="71" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="G180" s="14" t="s">
         <v>560</v>
@@ -12891,7 +12891,7 @@
         <v>404</v>
       </c>
       <c r="F181" s="75" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="G181" s="13" t="s">
         <v>557</v>
@@ -12944,7 +12944,7 @@
         <v>83</v>
       </c>
       <c r="F182" s="24" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="G182" s="14" t="s">
         <v>562</v>
@@ -12992,7 +12992,7 @@
         <v>423</v>
       </c>
       <c r="F183" s="71" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="G183" s="14" t="s">
         <v>560</v>
@@ -13040,7 +13040,7 @@
         <v>446</v>
       </c>
       <c r="F184" s="75" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="G184" s="13" t="s">
         <v>557</v>
@@ -13093,7 +13093,7 @@
         <v>83</v>
       </c>
       <c r="F185" s="24" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="G185" s="14" t="s">
         <v>562</v>
@@ -13141,7 +13141,7 @@
         <v>423</v>
       </c>
       <c r="F186" s="71" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="G186" s="14" t="s">
         <v>560</v>
@@ -13189,7 +13189,7 @@
         <v>446</v>
       </c>
       <c r="F187" s="75" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="G187" s="13" t="s">
         <v>557</v>
@@ -13242,7 +13242,7 @@
         <v>378</v>
       </c>
       <c r="F188" s="24" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="G188" s="14" t="s">
         <v>562</v>
@@ -13290,7 +13290,7 @@
         <v>387</v>
       </c>
       <c r="F189" s="71" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="G189" s="14" t="s">
         <v>560</v>
@@ -13338,7 +13338,7 @@
         <v>404</v>
       </c>
       <c r="F190" s="75" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="G190" s="13" t="s">
         <v>557</v>
@@ -14267,7 +14267,7 @@
         <v>484</v>
       </c>
       <c r="F210" s="71" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="G210" s="14" t="s">
         <v>488</v>
@@ -14358,7 +14358,7 @@
         <v>492</v>
       </c>
       <c r="F212" s="71" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="G212" s="14" t="s">
         <v>494</v>
@@ -14403,7 +14403,7 @@
         <v>493</v>
       </c>
       <c r="F213" s="72" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G213" s="13" t="s">
         <v>495</v>
@@ -14477,7 +14477,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="215" spans="1:20" ht="76.5" customHeight="1">
+    <row r="215" spans="1:20" ht="89.25" customHeight="1">
       <c r="A215" s="93" t="str">
         <f t="shared" si="3"/>
         <v>human triggering CDS rule 214</v>
@@ -14860,7 +14860,7 @@
         <v>528</v>
       </c>
       <c r="F223" s="24" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="G223" s="14" t="s">
         <v>523</v>
@@ -14951,7 +14951,7 @@
         <v>499</v>
       </c>
       <c r="F225" s="24" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="G225" s="20" t="s">
         <v>530</v>
@@ -14999,7 +14999,7 @@
         <v>500</v>
       </c>
       <c r="F226" s="24" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="G226" s="20" t="s">
         <v>531</v>
@@ -15047,7 +15047,7 @@
         <v>501</v>
       </c>
       <c r="F227" s="24" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="G227" s="20" t="s">
         <v>532</v>
@@ -15095,7 +15095,7 @@
         <v>502</v>
       </c>
       <c r="F228" s="25" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="G228" s="26" t="s">
         <v>533</v>
@@ -15144,7 +15144,7 @@
         <v>499</v>
       </c>
       <c r="F229" s="24" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="G229" s="20" t="s">
         <v>530</v>
@@ -15192,7 +15192,7 @@
         <v>500</v>
       </c>
       <c r="F230" s="24" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="G230" s="20" t="s">
         <v>531</v>
@@ -15240,7 +15240,7 @@
         <v>501</v>
       </c>
       <c r="F231" s="24" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="G231" s="20" t="s">
         <v>532</v>
@@ -15288,7 +15288,7 @@
         <v>502</v>
       </c>
       <c r="F232" s="25" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="G232" s="26" t="s">
         <v>533</v>
@@ -15337,7 +15337,7 @@
         <v>543</v>
       </c>
       <c r="F233" s="24" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="G233" s="20" t="s">
         <v>544</v>
@@ -15385,7 +15385,7 @@
         <v>542</v>
       </c>
       <c r="F234" s="24" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="G234" s="20" t="s">
         <v>545</v>
@@ -15433,7 +15433,7 @@
         <v>541</v>
       </c>
       <c r="F235" s="24" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="G235" s="20" t="s">
         <v>546</v>
@@ -15481,7 +15481,7 @@
         <v>540</v>
       </c>
       <c r="F236" s="25" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="G236" s="26" t="s">
         <v>547</v>
@@ -15803,7 +15803,7 @@
         <v>594</v>
       </c>
       <c r="F243" s="24" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="H243" s="17" t="s">
         <v>595</v>
@@ -15848,7 +15848,7 @@
         <v>596</v>
       </c>
       <c r="F244" s="24" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="H244" s="41" t="s">
         <v>597</v>
@@ -15893,7 +15893,7 @@
         <v>598</v>
       </c>
       <c r="F245" s="24" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="H245" s="41" t="s">
         <v>599</v>
@@ -15938,7 +15938,7 @@
         <v>600</v>
       </c>
       <c r="F246" s="24" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="H246" s="41" t="s">
         <v>599</v>
@@ -15983,7 +15983,7 @@
         <v>601</v>
       </c>
       <c r="F247" s="24" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="H247" s="41" t="s">
         <v>602</v>
@@ -16028,7 +16028,7 @@
         <v>603</v>
       </c>
       <c r="F248" s="24" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="H248" s="41" t="s">
         <v>550</v>
@@ -16073,7 +16073,7 @@
         <v>604</v>
       </c>
       <c r="F249" s="24" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="H249" s="41" t="s">
         <v>550</v>
@@ -16118,7 +16118,7 @@
         <v>605</v>
       </c>
       <c r="F250" s="24" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="H250" s="41" t="s">
         <v>551</v>
@@ -16163,7 +16163,7 @@
         <v>606</v>
       </c>
       <c r="F251" s="24" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="H251" s="41" t="s">
         <v>602</v>
@@ -16208,7 +16208,7 @@
         <v>607</v>
       </c>
       <c r="F252" s="24" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="H252" s="41" t="s">
         <v>608</v>
@@ -16253,7 +16253,7 @@
         <v>609</v>
       </c>
       <c r="F253" s="24" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="H253" s="41" t="s">
         <v>608</v>
@@ -16298,7 +16298,7 @@
         <v>610</v>
       </c>
       <c r="F254" s="24" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="H254" s="41" t="s">
         <v>599</v>
@@ -16343,7 +16343,7 @@
         <v>611</v>
       </c>
       <c r="F255" s="24" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="H255" s="41" t="s">
         <v>595</v>
@@ -16388,7 +16388,7 @@
         <v>612</v>
       </c>
       <c r="F256" s="24" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="H256" s="41" t="s">
         <v>613</v>
@@ -16433,7 +16433,7 @@
         <v>614</v>
       </c>
       <c r="F257" s="24" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="H257" s="41" t="s">
         <v>613</v>
@@ -16478,7 +16478,7 @@
         <v>615</v>
       </c>
       <c r="F258" s="25" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="H258" s="53" t="s">
         <v>599</v>
@@ -16524,7 +16524,7 @@
         <v>499</v>
       </c>
       <c r="F259" s="24" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="G259" s="20" t="s">
         <v>530</v>
@@ -16572,7 +16572,7 @@
         <v>500</v>
       </c>
       <c r="F260" s="24" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="G260" s="20" t="s">
         <v>531</v>
@@ -16620,7 +16620,7 @@
         <v>501</v>
       </c>
       <c r="F261" s="24" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="G261" s="20" t="s">
         <v>532</v>
@@ -16668,7 +16668,7 @@
         <v>502</v>
       </c>
       <c r="F262" s="25" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="G262" s="26" t="s">
         <v>533</v>
@@ -16717,7 +16717,7 @@
         <v>543</v>
       </c>
       <c r="F263" s="24" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="G263" s="20"/>
       <c r="H263" s="41" t="s">
@@ -16763,7 +16763,7 @@
         <v>542</v>
       </c>
       <c r="F264" s="24" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="G264" s="20"/>
       <c r="H264" s="41" t="s">
@@ -16809,7 +16809,7 @@
         <v>541</v>
       </c>
       <c r="F265" s="24" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="G265" s="20"/>
       <c r="H265" s="41" t="s">
@@ -16855,7 +16855,7 @@
         <v>540</v>
       </c>
       <c r="F266" s="25" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="G266" s="26"/>
       <c r="H266" s="53" t="s">
@@ -16902,7 +16902,7 @@
         <v>499</v>
       </c>
       <c r="F267" s="24" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="G267" s="20" t="s">
         <v>530</v>
@@ -16950,7 +16950,7 @@
         <v>500</v>
       </c>
       <c r="F268" s="24" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="G268" s="20" t="s">
         <v>531</v>
@@ -16998,7 +16998,7 @@
         <v>501</v>
       </c>
       <c r="F269" s="24" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="G269" s="20" t="s">
         <v>532</v>
@@ -17046,7 +17046,7 @@
         <v>502</v>
       </c>
       <c r="F270" s="25" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="G270" s="26" t="s">
         <v>533</v>
@@ -17095,7 +17095,7 @@
         <v>543</v>
       </c>
       <c r="F271" s="24" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="G271" s="20"/>
       <c r="H271" s="41" t="s">
@@ -17141,7 +17141,7 @@
         <v>542</v>
       </c>
       <c r="F272" s="24" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="G272" s="20"/>
       <c r="H272" s="41" t="s">
@@ -17187,7 +17187,7 @@
         <v>541</v>
       </c>
       <c r="F273" s="24" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="G273" s="20"/>
       <c r="H273" s="41" t="s">
@@ -17233,7 +17233,7 @@
         <v>540</v>
       </c>
       <c r="F274" s="25" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="G274" s="26"/>
       <c r="H274" s="53" t="s">
@@ -17280,7 +17280,7 @@
         <v>499</v>
       </c>
       <c r="F275" s="24" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="G275" s="20" t="s">
         <v>530</v>
@@ -17328,7 +17328,7 @@
         <v>500</v>
       </c>
       <c r="F276" s="24" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="G276" s="20" t="s">
         <v>531</v>
@@ -17376,7 +17376,7 @@
         <v>501</v>
       </c>
       <c r="F277" s="24" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="G277" s="20" t="s">
         <v>532</v>
@@ -17424,7 +17424,7 @@
         <v>502</v>
       </c>
       <c r="F278" s="25" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="G278" s="26" t="s">
         <v>533</v>
@@ -17473,7 +17473,7 @@
         <v>543</v>
       </c>
       <c r="F279" s="24" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="G279" s="20"/>
       <c r="H279" s="41" t="s">
@@ -17519,7 +17519,7 @@
         <v>542</v>
       </c>
       <c r="F280" s="24" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="G280" s="20"/>
       <c r="H280" s="41" t="s">
@@ -17565,7 +17565,7 @@
         <v>541</v>
       </c>
       <c r="F281" s="24" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="G281" s="20"/>
       <c r="H281" s="41" t="s">
@@ -17611,7 +17611,7 @@
         <v>540</v>
       </c>
       <c r="F282" s="25" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="G282" s="26"/>
       <c r="H282" s="53" t="s">
@@ -17658,7 +17658,7 @@
         <v>499</v>
       </c>
       <c r="F283" s="24" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="G283" s="20" t="s">
         <v>530</v>
@@ -17706,7 +17706,7 @@
         <v>500</v>
       </c>
       <c r="F284" s="24" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="G284" s="20" t="s">
         <v>531</v>
@@ -17754,7 +17754,7 @@
         <v>501</v>
       </c>
       <c r="F285" s="24" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="G285" s="20" t="s">
         <v>532</v>
@@ -17802,7 +17802,7 @@
         <v>502</v>
       </c>
       <c r="F286" s="25" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="G286" s="26" t="s">
         <v>533</v>
@@ -17851,7 +17851,7 @@
         <v>543</v>
       </c>
       <c r="F287" s="24" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="G287" s="20"/>
       <c r="H287" s="41" t="s">
@@ -17897,7 +17897,7 @@
         <v>542</v>
       </c>
       <c r="F288" s="24" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="G288" s="20"/>
       <c r="H288" s="41" t="s">
@@ -17943,7 +17943,7 @@
         <v>541</v>
       </c>
       <c r="F289" s="24" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="G289" s="20"/>
       <c r="H289" s="41" t="s">
@@ -17989,7 +17989,7 @@
         <v>540</v>
       </c>
       <c r="F290" s="25" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="G290" s="26"/>
       <c r="H290" s="53" t="s">
@@ -18036,7 +18036,7 @@
         <v>499</v>
       </c>
       <c r="F291" s="24" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="G291" s="20" t="s">
         <v>530</v>
@@ -18084,7 +18084,7 @@
         <v>500</v>
       </c>
       <c r="F292" s="24" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="G292" s="20" t="s">
         <v>531</v>
@@ -18132,7 +18132,7 @@
         <v>501</v>
       </c>
       <c r="F293" s="24" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="G293" s="20" t="s">
         <v>532</v>
@@ -18180,7 +18180,7 @@
         <v>502</v>
       </c>
       <c r="F294" s="25" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="G294" s="26" t="s">
         <v>533</v>
@@ -18229,7 +18229,7 @@
         <v>543</v>
       </c>
       <c r="F295" s="24" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="G295" s="20"/>
       <c r="H295" s="41" t="s">
@@ -18275,7 +18275,7 @@
         <v>542</v>
       </c>
       <c r="F296" s="24" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="G296" s="20"/>
       <c r="H296" s="41" t="s">
@@ -18321,7 +18321,7 @@
         <v>541</v>
       </c>
       <c r="F297" s="24" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="G297" s="20"/>
       <c r="H297" s="41" t="s">
@@ -18367,7 +18367,7 @@
         <v>540</v>
       </c>
       <c r="F298" s="25" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="G298" s="26"/>
       <c r="H298" s="53" t="s">
@@ -18408,25 +18408,25 @@
         <v>490</v>
       </c>
       <c r="D299" s="61" t="s">
+        <v>676</v>
+      </c>
+      <c r="E299" s="61" t="s">
+        <v>679</v>
+      </c>
+      <c r="F299" s="61" t="s">
         <v>677</v>
       </c>
-      <c r="E299" s="61" t="s">
+      <c r="H299" s="53" t="s">
+        <v>678</v>
+      </c>
+      <c r="I299" s="58" t="s">
+        <v>685</v>
+      </c>
+      <c r="L299" s="99" t="s">
+        <v>675</v>
+      </c>
+      <c r="M299" s="62" t="s">
         <v>680</v>
-      </c>
-      <c r="F299" s="61" t="s">
-        <v>678</v>
-      </c>
-      <c r="H299" s="53" t="s">
-        <v>679</v>
-      </c>
-      <c r="I299" s="58" t="s">
-        <v>687</v>
-      </c>
-      <c r="L299" s="99" t="s">
-        <v>676</v>
-      </c>
-      <c r="M299" s="62" t="s">
-        <v>681</v>
       </c>
       <c r="O299" s="61"/>
       <c r="P299" s="78">
@@ -18458,17 +18458,17 @@
         <v>52</v>
       </c>
       <c r="E300" s="61" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="F300" s="61"/>
       <c r="H300" s="53" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="I300" s="58" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="L300" s="99" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="O300" s="61" t="s">
         <v>54</v>
@@ -18555,7 +18555,7 @@
       <formula>NOT(ISERROR(SEARCH("completed", B118)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="4">
+  <dataValidations xWindow="80" yWindow="704" count="4">
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Click and enter a value from the list of items" sqref="B2:B210">
       <formula1>"needs more work, completed, validated, deprecated,"</formula1>
     </dataValidation>
@@ -19089,10 +19089,10 @@
         <v>81</v>
       </c>
       <c r="B8" s="86" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C8" s="82" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="114.75">
@@ -19100,10 +19100,10 @@
         <v>231</v>
       </c>
       <c r="B9" s="86" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C9" s="82" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="51">
@@ -19111,10 +19111,10 @@
         <v>241</v>
       </c>
       <c r="B10" s="86" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C10" s="81" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="89.25">
@@ -19122,10 +19122,10 @@
         <v>250</v>
       </c>
       <c r="B11" s="86" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C11" s="81" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="178.5">
@@ -19133,10 +19133,10 @@
         <v>258</v>
       </c>
       <c r="B12" s="86" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C12" s="81" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="38.25">
@@ -19144,10 +19144,10 @@
         <v>262</v>
       </c>
       <c r="B13" s="86" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C13" s="81" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="293.25">
@@ -19155,10 +19155,10 @@
         <v>267</v>
       </c>
       <c r="B14" s="86" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C14" s="81" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="63.75">
@@ -19166,10 +19166,10 @@
         <v>159</v>
       </c>
       <c r="B15" s="86" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C15" s="82" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="89.25">
@@ -19177,10 +19177,10 @@
         <v>285</v>
       </c>
       <c r="B16" s="86" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C16" s="81" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="229.5">
@@ -19188,10 +19188,10 @@
         <v>289</v>
       </c>
       <c r="B17" s="86" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C17" s="81" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="318.75">
@@ -19199,10 +19199,10 @@
         <v>295</v>
       </c>
       <c r="B18" s="88" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C18" s="81" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="165.75">
@@ -19210,10 +19210,10 @@
         <v>302</v>
       </c>
       <c r="B19" s="86" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C19" s="81" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="51">
@@ -19221,10 +19221,10 @@
         <v>306</v>
       </c>
       <c r="B20" s="86" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C20" s="81" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="306">
@@ -19232,13 +19232,13 @@
         <v>309</v>
       </c>
       <c r="B21" s="86" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C21" s="81" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D21" s="91" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="293.25">
@@ -19246,10 +19246,10 @@
         <v>311</v>
       </c>
       <c r="B22" s="86" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C22" s="81" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="63.75">
@@ -19257,10 +19257,10 @@
         <v>143</v>
       </c>
       <c r="B23" s="86" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C23" s="81" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="76.5">
@@ -19268,10 +19268,10 @@
         <v>316</v>
       </c>
       <c r="B24" s="86" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C24" s="81" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="89.25">
@@ -19279,10 +19279,10 @@
         <v>138</v>
       </c>
       <c r="B25" s="86" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C25" s="81" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="318.75">
@@ -19290,10 +19290,10 @@
         <v>324</v>
       </c>
       <c r="B26" s="86" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C26" s="81" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="318.75">
@@ -19301,10 +19301,10 @@
         <v>331</v>
       </c>
       <c r="B27" s="86" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C27" s="81" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="306">
@@ -19312,10 +19312,10 @@
         <v>336</v>
       </c>
       <c r="B28" s="86" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C28" s="81" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="38.25">
@@ -19323,10 +19323,10 @@
         <v>339</v>
       </c>
       <c r="B29" s="86" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C29" s="81" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="89.25">
@@ -19334,10 +19334,10 @@
         <v>96</v>
       </c>
       <c r="B30" s="86" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C30" s="81" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="63.75">
@@ -19345,10 +19345,10 @@
         <v>348</v>
       </c>
       <c r="B31" s="86" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C31" s="81" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="38.25">
@@ -19356,10 +19356,10 @@
         <v>352</v>
       </c>
       <c r="B32" s="86" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C32" s="81" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="76.5">
@@ -19367,10 +19367,10 @@
         <v>354</v>
       </c>
       <c r="B33" s="86" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C33" s="81" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="51">
@@ -19378,10 +19378,10 @@
         <v>357</v>
       </c>
       <c r="B34" s="86" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C34" s="81" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="178.5">
@@ -19389,10 +19389,10 @@
         <v>361</v>
       </c>
       <c r="B35" s="86" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C35" s="81" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="89.25">
@@ -19400,10 +19400,10 @@
         <v>367</v>
       </c>
       <c r="B36" s="86" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C36" s="81" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="102">
@@ -19411,10 +19411,10 @@
         <v>369</v>
       </c>
       <c r="B37" s="86" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C37" s="81" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="51">
@@ -19422,10 +19422,10 @@
         <v>377</v>
       </c>
       <c r="B38" s="86" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C38" s="81" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="306">
@@ -19433,10 +19433,10 @@
         <v>386</v>
       </c>
       <c r="B39" s="86" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C39" s="81" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="38.25">
@@ -19444,10 +19444,10 @@
         <v>391</v>
       </c>
       <c r="B40" s="86" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C40" s="81" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="63.75">
@@ -19455,10 +19455,10 @@
         <v>396</v>
       </c>
       <c r="B41" s="86" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C41" s="81" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="306">
@@ -19466,10 +19466,10 @@
         <v>398</v>
       </c>
       <c r="B42" s="86" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C42" s="81" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="293.25">
@@ -19477,10 +19477,10 @@
         <v>403</v>
       </c>
       <c r="B43" s="86" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C43" s="81" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="127.5">
@@ -19488,10 +19488,10 @@
         <v>410</v>
       </c>
       <c r="B44" s="86" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C44" s="81" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="102">
@@ -19499,10 +19499,10 @@
         <v>415</v>
       </c>
       <c r="B45" s="86" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C45" s="81" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="38.25">
@@ -19510,10 +19510,10 @@
         <v>417</v>
       </c>
       <c r="B46" s="86" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C46" s="81" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="318.75">
@@ -19521,10 +19521,10 @@
         <v>422</v>
       </c>
       <c r="B47" s="86" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C47" s="81" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="204">
@@ -19532,10 +19532,10 @@
         <v>429</v>
       </c>
       <c r="B48" s="86" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C48" s="81" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="127.5">
@@ -19543,10 +19543,10 @@
         <v>433</v>
       </c>
       <c r="B49" s="86" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C49" s="81" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="63.75">
@@ -19554,10 +19554,10 @@
         <v>438</v>
       </c>
       <c r="B50" s="86" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C50" s="81" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="306">
@@ -19565,10 +19565,10 @@
         <v>440</v>
       </c>
       <c r="B51" s="86" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C51" s="81" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="165.75">
@@ -19576,10 +19576,10 @@
         <v>445</v>
       </c>
       <c r="B52" s="86" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C52" s="81" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="255">
@@ -19587,10 +19587,10 @@
         <v>449</v>
       </c>
       <c r="B53" s="86" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C53" s="81" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="306">
@@ -19598,10 +19598,10 @@
         <v>452</v>
       </c>
       <c r="B54" s="86" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C54" s="81" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="25.5">
@@ -19609,10 +19609,10 @@
         <v>461</v>
       </c>
       <c r="B55" s="86" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C55" s="81" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="114.75">
@@ -19620,10 +19620,10 @@
         <v>471</v>
       </c>
       <c r="B56" s="86" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C56" s="81" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="255">
@@ -19631,10 +19631,10 @@
         <v>477</v>
       </c>
       <c r="B57" s="81" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="C57" s="82" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="51">
@@ -19642,10 +19642,10 @@
         <v>490</v>
       </c>
       <c r="B58" s="86" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C58" s="81" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="89.25">
@@ -19653,10 +19653,10 @@
         <v>520</v>
       </c>
       <c r="B59" s="86" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C59" s="81" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="216.75">
@@ -19664,10 +19664,10 @@
         <v>589</v>
       </c>
       <c r="B60" s="86" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C60" s="81" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="306">
@@ -19675,10 +19675,10 @@
         <v>651</v>
       </c>
       <c r="B61" s="86" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C61" s="81" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="38.25">
@@ -19686,10 +19686,10 @@
         <v>655</v>
       </c>
       <c r="B62" s="86" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C62" s="81" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
   </sheetData>
@@ -21838,10 +21838,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K925"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -21898,7 +21898,7 @@
     </row>
     <row r="2" spans="1:11" ht="50.25">
       <c r="A2" s="71" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B2" s="71" t="s">
         <v>52</v>
@@ -21907,7 +21907,7 @@
         <v>621</v>
       </c>
       <c r="D2" s="71" t="s">
-        <v>675</v>
+        <v>854</v>
       </c>
       <c r="E2" s="71"/>
       <c r="F2" s="102" t="s">
@@ -21929,7 +21929,7 @@
     </row>
     <row r="3" spans="1:11" ht="50.25">
       <c r="A3" s="71" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B3" s="71" t="s">
         <v>52</v>
@@ -21960,7 +21960,7 @@
     </row>
     <row r="4" spans="1:11" ht="72">
       <c r="A4" s="71" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B4" s="71" t="s">
         <v>52</v>
@@ -21991,7 +21991,7 @@
     </row>
     <row r="5" spans="1:11" s="68" customFormat="1" ht="60">
       <c r="A5" s="75" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B5" s="75" t="s">
         <v>52</v>
@@ -22022,7 +22022,7 @@
     </row>
     <row r="6" spans="1:11" ht="84">
       <c r="A6" s="71" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B6" s="71" t="s">
         <v>52</v>
@@ -22053,13 +22053,13 @@
     </row>
     <row r="7" spans="1:11" ht="409.5">
       <c r="A7" s="71" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B7" s="71" t="s">
         <v>52</v>
       </c>
       <c r="C7" s="71" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="D7" s="71" t="s">
         <v>641</v>
@@ -22084,7 +22084,7 @@
     </row>
     <row r="8" spans="1:11" ht="324">
       <c r="A8" s="71" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B8" s="71" t="s">
         <v>52</v>
@@ -22115,7 +22115,7 @@
     </row>
     <row r="9" spans="1:11" s="68" customFormat="1" ht="216">
       <c r="A9" s="75" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B9" s="75" t="s">
         <v>52</v>
@@ -22146,7 +22146,7 @@
     </row>
     <row r="10" spans="1:11" ht="48">
       <c r="A10" s="71" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B10" s="71" t="s">
         <v>56</v>
@@ -22177,7 +22177,7 @@
     </row>
     <row r="11" spans="1:11" ht="48">
       <c r="A11" s="71" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B11" s="71" t="s">
         <v>56</v>
@@ -22208,7 +22208,7 @@
     </row>
     <row r="12" spans="1:11" s="68" customFormat="1" ht="48">
       <c r="A12" s="75" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B12" s="75" t="s">
         <v>56</v>
@@ -22239,16 +22239,16 @@
     </row>
     <row r="13" spans="1:11" ht="288">
       <c r="A13" s="71" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B13" s="71" t="s">
         <v>56</v>
       </c>
       <c r="C13" s="71" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D13" s="71" t="s">
-        <v>684</v>
+        <v>853</v>
       </c>
       <c r="E13" s="71"/>
       <c r="F13" s="102" t="s">
@@ -22270,7 +22270,7 @@
     </row>
     <row r="14" spans="1:11" ht="144">
       <c r="A14" s="71" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B14" s="71" t="s">
         <v>56</v>
@@ -22301,7 +22301,7 @@
     </row>
     <row r="15" spans="1:11" s="68" customFormat="1" ht="228">
       <c r="A15" s="75" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B15" s="75" t="s">
         <v>56</v>
@@ -22334,7 +22334,7 @@
     </row>
     <row r="16" spans="1:11" ht="156">
       <c r="A16" s="71" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B16" s="71" t="s">
         <v>56</v>
@@ -22365,7 +22365,7 @@
     </row>
     <row r="17" spans="1:11" s="68" customFormat="1" ht="132">
       <c r="A17" s="75" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B17" s="75" t="s">
         <v>56</v>
@@ -22374,7 +22374,7 @@
         <v>634</v>
       </c>
       <c r="D17" s="75" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="E17" s="75"/>
       <c r="F17" s="104" t="s">
@@ -22396,7 +22396,7 @@
     </row>
     <row r="18" spans="1:11" ht="156">
       <c r="A18" s="71" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B18" s="71" t="s">
         <v>56</v>
@@ -22429,7 +22429,7 @@
     </row>
     <row r="19" spans="1:11" s="68" customFormat="1" ht="156">
       <c r="A19" s="75" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B19" s="75" t="s">
         <v>56</v>

--- a/knowledge-base/trunk/data/decision-support-rules/Pharmacogenomics decision support spreadsheet_v2.xlsx
+++ b/knowledge-base/trunk/data/decision-support-rules/Pharmacogenomics decision support spreadsheet_v2.xlsx
@@ -4006,9 +4006,9 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:U305"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A300" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B301" sqref="B301"/>
+    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A296" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A372" sqref="A372"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="76.5" customHeight="1"/>
@@ -4101,8 +4101,8 @@
     </row>
     <row r="2" spans="1:21" ht="76.5" customHeight="1">
       <c r="A2" s="92" t="str">
-        <f>"human triggering CDS rule " &amp; (ROW() - 1)</f>
-        <v>human triggering CDS rule 1</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 1</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>13</v>
@@ -4151,8 +4151,8 @@
     </row>
     <row r="3" spans="1:21" ht="76.5" customHeight="1">
       <c r="A3" s="92" t="str">
-        <f t="shared" ref="A3:A66" si="0">"human triggering CDS rule " &amp; (ROW() - 1)</f>
-        <v>human triggering CDS rule 2</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 2</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>13</v>
@@ -4201,8 +4201,8 @@
     </row>
     <row r="4" spans="1:21" ht="76.5" customHeight="1">
       <c r="A4" s="92" t="str">
-        <f t="shared" si="0"/>
-        <v>human triggering CDS rule 3</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 3</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>13</v>
@@ -4251,8 +4251,8 @@
     </row>
     <row r="5" spans="1:21" ht="96" customHeight="1">
       <c r="A5" s="92" t="str">
-        <f t="shared" si="0"/>
-        <v>human triggering CDS rule 4</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 4</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>13</v>
@@ -4301,8 +4301,8 @@
     </row>
     <row r="6" spans="1:21" ht="114.75" customHeight="1">
       <c r="A6" s="92" t="str">
-        <f t="shared" si="0"/>
-        <v>human triggering CDS rule 5</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 5</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>13</v>
@@ -4351,8 +4351,8 @@
     </row>
     <row r="7" spans="1:21" ht="89.25" customHeight="1">
       <c r="A7" s="92" t="str">
-        <f t="shared" si="0"/>
-        <v>human triggering CDS rule 6</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 6</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>13</v>
@@ -4401,8 +4401,8 @@
     </row>
     <row r="8" spans="1:21" ht="76.5" customHeight="1">
       <c r="A8" s="92" t="str">
-        <f t="shared" si="0"/>
-        <v>human triggering CDS rule 7</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 7</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>13</v>
@@ -4451,8 +4451,8 @@
     </row>
     <row r="9" spans="1:21" ht="76.5" customHeight="1">
       <c r="A9" s="92" t="str">
-        <f t="shared" si="0"/>
-        <v>human triggering CDS rule 8</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 8</v>
       </c>
       <c r="B9" s="17" t="s">
         <v>13</v>
@@ -4501,8 +4501,8 @@
     </row>
     <row r="10" spans="1:21" ht="76.5" customHeight="1">
       <c r="A10" s="92" t="str">
-        <f t="shared" si="0"/>
-        <v>human triggering CDS rule 9</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 9</v>
       </c>
       <c r="B10" s="17" t="s">
         <v>13</v>
@@ -4551,8 +4551,8 @@
     </row>
     <row r="11" spans="1:21" ht="114.75">
       <c r="A11" s="92" t="str">
-        <f t="shared" si="0"/>
-        <v>human triggering CDS rule 10</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 10</v>
       </c>
       <c r="B11" s="17" t="s">
         <v>13</v>
@@ -4601,8 +4601,8 @@
     </row>
     <row r="12" spans="1:21" ht="76.5" customHeight="1">
       <c r="A12" s="92" t="str">
-        <f t="shared" si="0"/>
-        <v>human triggering CDS rule 11</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 11</v>
       </c>
       <c r="B12" s="17" t="s">
         <v>13</v>
@@ -4651,8 +4651,8 @@
     </row>
     <row r="13" spans="1:21" ht="76.5" customHeight="1">
       <c r="A13" s="92" t="str">
-        <f t="shared" si="0"/>
-        <v>human triggering CDS rule 12</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 12</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>13</v>
@@ -4701,8 +4701,8 @@
     </row>
     <row r="14" spans="1:21" ht="76.5" customHeight="1">
       <c r="A14" s="92" t="str">
-        <f t="shared" si="0"/>
-        <v>human triggering CDS rule 13</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 13</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>13</v>
@@ -4751,8 +4751,8 @@
     </row>
     <row r="15" spans="1:21" ht="76.5" customHeight="1">
       <c r="A15" s="92" t="str">
-        <f t="shared" si="0"/>
-        <v>human triggering CDS rule 14</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 14</v>
       </c>
       <c r="B15" s="17" t="s">
         <v>13</v>
@@ -4801,8 +4801,8 @@
     </row>
     <row r="16" spans="1:21" ht="76.5" customHeight="1">
       <c r="A16" s="92" t="str">
-        <f t="shared" si="0"/>
-        <v>human triggering CDS rule 15</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 15</v>
       </c>
       <c r="B16" s="17" t="s">
         <v>13</v>
@@ -4851,8 +4851,8 @@
     </row>
     <row r="17" spans="1:20" ht="76.5" customHeight="1">
       <c r="A17" s="92" t="str">
-        <f t="shared" si="0"/>
-        <v>human triggering CDS rule 16</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 16</v>
       </c>
       <c r="B17" s="17" t="s">
         <v>13</v>
@@ -4901,8 +4901,8 @@
     </row>
     <row r="18" spans="1:20" ht="76.5" customHeight="1">
       <c r="A18" s="92" t="str">
-        <f t="shared" si="0"/>
-        <v>human triggering CDS rule 17</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 17</v>
       </c>
       <c r="B18" s="17" t="s">
         <v>13</v>
@@ -4951,8 +4951,8 @@
     </row>
     <row r="19" spans="1:20" s="12" customFormat="1" ht="76.5" customHeight="1">
       <c r="A19" s="93" t="str">
-        <f t="shared" si="0"/>
-        <v>human triggering CDS rule 18</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 18</v>
       </c>
       <c r="B19" s="22" t="s">
         <v>13</v>
@@ -5002,8 +5002,8 @@
     </row>
     <row r="20" spans="1:20" ht="76.5" customHeight="1">
       <c r="A20" s="92" t="str">
-        <f t="shared" si="0"/>
-        <v>human triggering CDS rule 19</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 19</v>
       </c>
       <c r="B20" s="32" t="s">
         <v>13</v>
@@ -5050,8 +5050,8 @@
     </row>
     <row r="21" spans="1:20" ht="76.5" customHeight="1">
       <c r="A21" s="92" t="str">
-        <f t="shared" si="0"/>
-        <v>human triggering CDS rule 20</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 20</v>
       </c>
       <c r="B21" s="32" t="s">
         <v>13</v>
@@ -5098,8 +5098,8 @@
     </row>
     <row r="22" spans="1:20" ht="102.6" customHeight="1">
       <c r="A22" s="92" t="str">
-        <f t="shared" si="0"/>
-        <v>human triggering CDS rule 21</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 21</v>
       </c>
       <c r="B22" s="32" t="s">
         <v>13</v>
@@ -5146,8 +5146,8 @@
     </row>
     <row r="23" spans="1:20" s="12" customFormat="1" ht="76.5" customHeight="1">
       <c r="A23" s="93" t="str">
-        <f t="shared" si="0"/>
-        <v>human triggering CDS rule 22</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 22</v>
       </c>
       <c r="B23" s="35" t="s">
         <v>13</v>
@@ -5195,8 +5195,8 @@
     </row>
     <row r="24" spans="1:20" ht="49.5" customHeight="1">
       <c r="A24" s="92" t="str">
-        <f t="shared" si="0"/>
-        <v>human triggering CDS rule 23</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 23</v>
       </c>
       <c r="B24" s="17" t="s">
         <v>13</v>
@@ -5246,8 +5246,8 @@
     </row>
     <row r="25" spans="1:20" ht="104.25" customHeight="1">
       <c r="A25" s="92" t="str">
-        <f t="shared" si="0"/>
-        <v>human triggering CDS rule 24</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 24</v>
       </c>
       <c r="B25" s="17" t="s">
         <v>13</v>
@@ -5297,8 +5297,8 @@
     </row>
     <row r="26" spans="1:20" s="12" customFormat="1" ht="76.5" customHeight="1">
       <c r="A26" s="93" t="str">
-        <f t="shared" si="0"/>
-        <v>human triggering CDS rule 25</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 25</v>
       </c>
       <c r="B26" s="22" t="s">
         <v>13</v>
@@ -5349,8 +5349,8 @@
     </row>
     <row r="27" spans="1:20" ht="58.5" customHeight="1">
       <c r="A27" s="92" t="str">
-        <f t="shared" si="0"/>
-        <v>human triggering CDS rule 26</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 26</v>
       </c>
       <c r="B27" s="32" t="s">
         <v>13</v>
@@ -5397,8 +5397,8 @@
     </row>
     <row r="28" spans="1:20" ht="147" customHeight="1">
       <c r="A28" s="92" t="str">
-        <f t="shared" si="0"/>
-        <v>human triggering CDS rule 27</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 27</v>
       </c>
       <c r="B28" s="17" t="s">
         <v>13</v>
@@ -5446,8 +5446,8 @@
     </row>
     <row r="29" spans="1:20" s="12" customFormat="1" ht="106.5" customHeight="1">
       <c r="A29" s="93" t="str">
-        <f t="shared" si="0"/>
-        <v>human triggering CDS rule 28</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 28</v>
       </c>
       <c r="B29" s="35" t="s">
         <v>13</v>
@@ -5495,8 +5495,8 @@
     </row>
     <row r="30" spans="1:20" ht="76.5" customHeight="1">
       <c r="A30" s="92" t="str">
-        <f t="shared" si="0"/>
-        <v>human triggering CDS rule 29</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 29</v>
       </c>
       <c r="B30" s="17" t="s">
         <v>13</v>
@@ -5543,8 +5543,8 @@
     </row>
     <row r="31" spans="1:20" ht="194.25" customHeight="1">
       <c r="A31" s="92" t="str">
-        <f t="shared" si="0"/>
-        <v>human triggering CDS rule 30</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 30</v>
       </c>
       <c r="B31" s="17" t="s">
         <v>13</v>
@@ -5592,8 +5592,8 @@
     </row>
     <row r="32" spans="1:20" s="12" customFormat="1" ht="180.75" customHeight="1">
       <c r="A32" s="93" t="str">
-        <f t="shared" si="0"/>
-        <v>human triggering CDS rule 31</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 31</v>
       </c>
       <c r="B32" s="22" t="s">
         <v>13</v>
@@ -5641,8 +5641,8 @@
     </row>
     <row r="33" spans="1:20" ht="60.75" customHeight="1">
       <c r="A33" s="92" t="str">
-        <f t="shared" si="0"/>
-        <v>human triggering CDS rule 32</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 32</v>
       </c>
       <c r="B33" s="32" t="s">
         <v>13</v>
@@ -5690,8 +5690,8 @@
     </row>
     <row r="34" spans="1:20" ht="86.25" customHeight="1">
       <c r="A34" s="92" t="str">
-        <f t="shared" si="0"/>
-        <v>human triggering CDS rule 33</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 33</v>
       </c>
       <c r="B34" s="17" t="s">
         <v>13</v>
@@ -5739,8 +5739,8 @@
     </row>
     <row r="35" spans="1:20" s="12" customFormat="1" ht="111" customHeight="1">
       <c r="A35" s="92" t="str">
-        <f t="shared" si="0"/>
-        <v>human triggering CDS rule 34</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 34</v>
       </c>
       <c r="B35" s="35" t="s">
         <v>13</v>
@@ -5788,8 +5788,8 @@
     </row>
     <row r="36" spans="1:20" ht="165" customHeight="1">
       <c r="A36" s="92" t="str">
-        <f t="shared" si="0"/>
-        <v>human triggering CDS rule 35</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 35</v>
       </c>
       <c r="B36" s="17" t="s">
         <v>13</v>
@@ -5842,8 +5842,8 @@
     </row>
     <row r="37" spans="1:20" s="12" customFormat="1" ht="150" customHeight="1">
       <c r="A37" s="93" t="str">
-        <f t="shared" si="0"/>
-        <v>human triggering CDS rule 36</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 36</v>
       </c>
       <c r="B37" s="35" t="s">
         <v>13</v>
@@ -5897,8 +5897,8 @@
     </row>
     <row r="38" spans="1:20" ht="130.5" customHeight="1">
       <c r="A38" s="92" t="str">
-        <f t="shared" si="0"/>
-        <v>human triggering CDS rule 37</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 37</v>
       </c>
       <c r="B38" s="17" t="s">
         <v>13</v>
@@ -5948,8 +5948,8 @@
     </row>
     <row r="39" spans="1:20" s="12" customFormat="1" ht="155.25" customHeight="1">
       <c r="A39" s="93" t="str">
-        <f t="shared" si="0"/>
-        <v>human triggering CDS rule 38</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 38</v>
       </c>
       <c r="B39" s="35" t="s">
         <v>13</v>
@@ -6000,8 +6000,8 @@
     </row>
     <row r="40" spans="1:20" ht="143.25" customHeight="1">
       <c r="A40" s="92" t="str">
-        <f t="shared" si="0"/>
-        <v>human triggering CDS rule 39</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 39</v>
       </c>
       <c r="B40" s="17" t="s">
         <v>13</v>
@@ -6051,8 +6051,8 @@
     </row>
     <row r="41" spans="1:20" s="12" customFormat="1" ht="147" customHeight="1">
       <c r="A41" s="93" t="str">
-        <f t="shared" si="0"/>
-        <v>human triggering CDS rule 40</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 40</v>
       </c>
       <c r="B41" s="22" t="s">
         <v>13</v>
@@ -6103,8 +6103,8 @@
     </row>
     <row r="42" spans="1:20" ht="76.5" customHeight="1">
       <c r="A42" s="92" t="str">
-        <f t="shared" si="0"/>
-        <v>human triggering CDS rule 41</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 41</v>
       </c>
       <c r="B42" s="32" t="s">
         <v>13</v>
@@ -6154,8 +6154,8 @@
     </row>
     <row r="43" spans="1:20" ht="76.5" customHeight="1">
       <c r="A43" s="92" t="str">
-        <f t="shared" si="0"/>
-        <v>human triggering CDS rule 42</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 42</v>
       </c>
       <c r="B43" s="17" t="s">
         <v>13</v>
@@ -6205,8 +6205,8 @@
     </row>
     <row r="44" spans="1:20" ht="76.5" customHeight="1">
       <c r="A44" s="92" t="str">
-        <f t="shared" si="0"/>
-        <v>human triggering CDS rule 43</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 43</v>
       </c>
       <c r="B44" s="17" t="s">
         <v>13</v>
@@ -6256,8 +6256,8 @@
     </row>
     <row r="45" spans="1:20" s="12" customFormat="1" ht="76.5" customHeight="1">
       <c r="A45" s="93" t="str">
-        <f t="shared" si="0"/>
-        <v>human triggering CDS rule 44</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 44</v>
       </c>
       <c r="B45" s="35" t="s">
         <v>13</v>
@@ -6307,8 +6307,8 @@
     </row>
     <row r="46" spans="1:20" ht="76.5" customHeight="1">
       <c r="A46" s="92" t="str">
-        <f t="shared" si="0"/>
-        <v>human triggering CDS rule 45</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 45</v>
       </c>
       <c r="B46" s="17" t="s">
         <v>13</v>
@@ -6358,8 +6358,8 @@
     </row>
     <row r="47" spans="1:20" ht="176.45" customHeight="1">
       <c r="A47" s="92" t="str">
-        <f t="shared" si="0"/>
-        <v>human triggering CDS rule 46</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 46</v>
       </c>
       <c r="B47" s="17" t="s">
         <v>13</v>
@@ -6409,8 +6409,8 @@
     </row>
     <row r="48" spans="1:20" s="12" customFormat="1" ht="76.5" customHeight="1">
       <c r="A48" s="93" t="str">
-        <f t="shared" si="0"/>
-        <v>human triggering CDS rule 47</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 47</v>
       </c>
       <c r="B48" s="22" t="s">
         <v>13</v>
@@ -6464,8 +6464,8 @@
     </row>
     <row r="49" spans="1:20" ht="76.5" customHeight="1">
       <c r="A49" s="92" t="str">
-        <f t="shared" si="0"/>
-        <v>human triggering CDS rule 48</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 48</v>
       </c>
       <c r="B49" s="26" t="s">
         <v>13</v>
@@ -6507,8 +6507,8 @@
     </row>
     <row r="50" spans="1:20" ht="76.5" customHeight="1">
       <c r="A50" s="92" t="str">
-        <f t="shared" si="0"/>
-        <v>human triggering CDS rule 49</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 49</v>
       </c>
       <c r="B50" s="26" t="s">
         <v>13</v>
@@ -6550,8 +6550,8 @@
     </row>
     <row r="51" spans="1:20" s="12" customFormat="1" ht="76.5" customHeight="1">
       <c r="A51" s="93" t="str">
-        <f t="shared" si="0"/>
-        <v>human triggering CDS rule 50</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 50</v>
       </c>
       <c r="B51" s="49" t="s">
         <v>13</v>
@@ -6594,8 +6594,8 @@
     </row>
     <row r="52" spans="1:20" ht="76.5" customHeight="1">
       <c r="A52" s="92" t="str">
-        <f t="shared" si="0"/>
-        <v>human triggering CDS rule 51</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 51</v>
       </c>
       <c r="B52" s="13" t="s">
         <v>13</v>
@@ -6642,8 +6642,8 @@
     </row>
     <row r="53" spans="1:20" ht="324">
       <c r="A53" s="92" t="str">
-        <f t="shared" si="0"/>
-        <v>human triggering CDS rule 52</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 52</v>
       </c>
       <c r="B53" s="13" t="s">
         <v>13</v>
@@ -6690,8 +6690,8 @@
     </row>
     <row r="54" spans="1:20" s="12" customFormat="1" ht="76.5" customHeight="1">
       <c r="A54" s="93" t="str">
-        <f t="shared" si="0"/>
-        <v>human triggering CDS rule 53</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 53</v>
       </c>
       <c r="B54" s="12" t="s">
         <v>13</v>
@@ -6743,8 +6743,8 @@
     </row>
     <row r="55" spans="1:20" ht="76.5" customHeight="1">
       <c r="A55" s="92" t="str">
-        <f t="shared" si="0"/>
-        <v>human triggering CDS rule 54</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 54</v>
       </c>
       <c r="B55" s="13" t="s">
         <v>13</v>
@@ -6791,8 +6791,8 @@
     </row>
     <row r="56" spans="1:20" ht="348">
       <c r="A56" s="92" t="str">
-        <f t="shared" si="0"/>
-        <v>human triggering CDS rule 55</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 55</v>
       </c>
       <c r="B56" s="13" t="s">
         <v>13</v>
@@ -6839,8 +6839,8 @@
     </row>
     <row r="57" spans="1:20" s="12" customFormat="1" ht="76.5" customHeight="1">
       <c r="A57" s="93" t="str">
-        <f t="shared" si="0"/>
-        <v>human triggering CDS rule 56</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 56</v>
       </c>
       <c r="B57" s="12" t="s">
         <v>13</v>
@@ -6892,8 +6892,8 @@
     </row>
     <row r="58" spans="1:20" ht="76.5" customHeight="1">
       <c r="A58" s="92" t="str">
-        <f t="shared" si="0"/>
-        <v>human triggering CDS rule 57</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 57</v>
       </c>
       <c r="B58" s="13" t="s">
         <v>13</v>
@@ -6940,8 +6940,8 @@
     </row>
     <row r="59" spans="1:20" ht="76.5" customHeight="1">
       <c r="A59" s="92" t="str">
-        <f t="shared" si="0"/>
-        <v>human triggering CDS rule 58</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 58</v>
       </c>
       <c r="B59" s="13" t="s">
         <v>13</v>
@@ -6988,8 +6988,8 @@
     </row>
     <row r="60" spans="1:20" s="12" customFormat="1" ht="76.5" customHeight="1">
       <c r="A60" s="93" t="str">
-        <f t="shared" si="0"/>
-        <v>human triggering CDS rule 59</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 59</v>
       </c>
       <c r="B60" s="12" t="s">
         <v>13</v>
@@ -7038,8 +7038,8 @@
     </row>
     <row r="61" spans="1:20" ht="76.5" customHeight="1">
       <c r="A61" s="92" t="str">
-        <f t="shared" si="0"/>
-        <v>human triggering CDS rule 60</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 60</v>
       </c>
       <c r="B61" s="13" t="s">
         <v>13</v>
@@ -7086,8 +7086,8 @@
     </row>
     <row r="62" spans="1:20" ht="348">
       <c r="A62" s="92" t="str">
-        <f t="shared" si="0"/>
-        <v>human triggering CDS rule 61</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 61</v>
       </c>
       <c r="B62" s="13" t="s">
         <v>13</v>
@@ -7134,8 +7134,8 @@
     </row>
     <row r="63" spans="1:20" s="12" customFormat="1" ht="76.5" customHeight="1">
       <c r="A63" s="93" t="str">
-        <f t="shared" si="0"/>
-        <v>human triggering CDS rule 62</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 62</v>
       </c>
       <c r="B63" s="12" t="s">
         <v>13</v>
@@ -7187,8 +7187,8 @@
     </row>
     <row r="64" spans="1:20" ht="76.5" customHeight="1">
       <c r="A64" s="92" t="str">
-        <f t="shared" si="0"/>
-        <v>human triggering CDS rule 63</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 63</v>
       </c>
       <c r="B64" s="13" t="s">
         <v>13</v>
@@ -7235,8 +7235,8 @@
     </row>
     <row r="65" spans="1:20" ht="348">
       <c r="A65" s="92" t="str">
-        <f t="shared" si="0"/>
-        <v>human triggering CDS rule 64</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 64</v>
       </c>
       <c r="B65" s="13" t="s">
         <v>13</v>
@@ -7283,8 +7283,8 @@
     </row>
     <row r="66" spans="1:20" s="12" customFormat="1" ht="76.5" customHeight="1">
       <c r="A66" s="93" t="str">
-        <f t="shared" si="0"/>
-        <v>human triggering CDS rule 65</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 65</v>
       </c>
       <c r="B66" s="12" t="s">
         <v>13</v>
@@ -7336,8 +7336,8 @@
     </row>
     <row r="67" spans="1:20" ht="76.5" customHeight="1">
       <c r="A67" s="92" t="str">
-        <f t="shared" ref="A67:A129" si="1">"human triggering CDS rule " &amp; (ROW() - 1)</f>
-        <v>human triggering CDS rule 66</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 66</v>
       </c>
       <c r="B67" s="13" t="s">
         <v>13</v>
@@ -7381,8 +7381,8 @@
     </row>
     <row r="68" spans="1:20" ht="76.5" customHeight="1">
       <c r="A68" s="92" t="str">
-        <f t="shared" si="1"/>
-        <v>human triggering CDS rule 67</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 67</v>
       </c>
       <c r="B68" s="13" t="s">
         <v>13</v>
@@ -7426,8 +7426,8 @@
     </row>
     <row r="69" spans="1:20" ht="76.5" customHeight="1">
       <c r="A69" s="92" t="str">
-        <f t="shared" si="1"/>
-        <v>human triggering CDS rule 68</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 68</v>
       </c>
       <c r="B69" s="13" t="s">
         <v>13</v>
@@ -7471,8 +7471,8 @@
     </row>
     <row r="70" spans="1:20" ht="76.5" customHeight="1">
       <c r="A70" s="92" t="str">
-        <f t="shared" si="1"/>
-        <v>human triggering CDS rule 69</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 69</v>
       </c>
       <c r="B70" s="13" t="s">
         <v>13</v>
@@ -7516,8 +7516,8 @@
     </row>
     <row r="71" spans="1:20" s="12" customFormat="1" ht="55.9" customHeight="1">
       <c r="A71" s="93" t="str">
-        <f t="shared" si="1"/>
-        <v>human triggering CDS rule 70</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 70</v>
       </c>
       <c r="B71" s="12" t="s">
         <v>13</v>
@@ -7563,8 +7563,8 @@
     </row>
     <row r="72" spans="1:20" ht="118.15" customHeight="1">
       <c r="A72" s="92" t="str">
-        <f t="shared" si="1"/>
-        <v>human triggering CDS rule 71</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 71</v>
       </c>
       <c r="B72" s="13" t="s">
         <v>13</v>
@@ -7617,8 +7617,8 @@
     </row>
     <row r="73" spans="1:20" s="12" customFormat="1" ht="76.5" customHeight="1">
       <c r="A73" s="93" t="str">
-        <f t="shared" si="1"/>
-        <v>human triggering CDS rule 72</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 72</v>
       </c>
       <c r="B73" s="12" t="s">
         <v>13</v>
@@ -7672,8 +7672,8 @@
     </row>
     <row r="74" spans="1:20" ht="76.5" customHeight="1">
       <c r="A74" s="92" t="str">
-        <f t="shared" si="1"/>
-        <v>human triggering CDS rule 73</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 73</v>
       </c>
       <c r="B74" s="13" t="s">
         <v>13</v>
@@ -7720,8 +7720,8 @@
     </row>
     <row r="75" spans="1:20" ht="76.5" customHeight="1">
       <c r="A75" s="92" t="str">
-        <f t="shared" si="1"/>
-        <v>human triggering CDS rule 74</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 74</v>
       </c>
       <c r="B75" s="13" t="s">
         <v>13</v>
@@ -7768,8 +7768,8 @@
     </row>
     <row r="76" spans="1:20" s="12" customFormat="1" ht="76.5" customHeight="1">
       <c r="A76" s="93" t="str">
-        <f t="shared" si="1"/>
-        <v>human triggering CDS rule 75</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 75</v>
       </c>
       <c r="B76" s="12" t="s">
         <v>13</v>
@@ -7821,8 +7821,8 @@
     </row>
     <row r="77" spans="1:20" ht="76.5" customHeight="1">
       <c r="A77" s="92" t="str">
-        <f t="shared" si="1"/>
-        <v>human triggering CDS rule 76</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 76</v>
       </c>
       <c r="B77" s="13" t="s">
         <v>13</v>
@@ -7866,8 +7866,8 @@
     </row>
     <row r="78" spans="1:20" s="12" customFormat="1" ht="76.5" customHeight="1">
       <c r="A78" s="93" t="str">
-        <f t="shared" si="1"/>
-        <v>human triggering CDS rule 77</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 77</v>
       </c>
       <c r="B78" s="12" t="s">
         <v>13</v>
@@ -7913,8 +7913,8 @@
     </row>
     <row r="79" spans="1:20" ht="101.25" customHeight="1">
       <c r="A79" s="92" t="str">
-        <f t="shared" si="1"/>
-        <v>human triggering CDS rule 78</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 78</v>
       </c>
       <c r="B79" s="13" t="s">
         <v>13</v>
@@ -7961,8 +7961,8 @@
     </row>
     <row r="80" spans="1:20" ht="157.5" customHeight="1">
       <c r="A80" s="92" t="str">
-        <f t="shared" si="1"/>
-        <v>human triggering CDS rule 79</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 79</v>
       </c>
       <c r="B80" s="13" t="s">
         <v>13</v>
@@ -8009,8 +8009,8 @@
     </row>
     <row r="81" spans="1:20" s="12" customFormat="1" ht="76.5" customHeight="1">
       <c r="A81" s="93" t="str">
-        <f t="shared" si="1"/>
-        <v>human triggering CDS rule 80</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 80</v>
       </c>
       <c r="B81" s="12" t="s">
         <v>13</v>
@@ -8059,8 +8059,8 @@
     </row>
     <row r="82" spans="1:20" ht="76.5" customHeight="1">
       <c r="A82" s="92" t="str">
-        <f t="shared" si="1"/>
-        <v>human triggering CDS rule 81</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 81</v>
       </c>
       <c r="B82" s="13" t="s">
         <v>13</v>
@@ -8107,8 +8107,8 @@
     </row>
     <row r="83" spans="1:20" ht="348">
       <c r="A83" s="92" t="str">
-        <f t="shared" si="1"/>
-        <v>human triggering CDS rule 82</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 82</v>
       </c>
       <c r="B83" s="13" t="s">
         <v>13</v>
@@ -8155,8 +8155,8 @@
     </row>
     <row r="84" spans="1:20" s="12" customFormat="1" ht="76.5" customHeight="1">
       <c r="A84" s="93" t="str">
-        <f t="shared" si="1"/>
-        <v>human triggering CDS rule 83</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 83</v>
       </c>
       <c r="B84" s="12" t="s">
         <v>13</v>
@@ -8208,8 +8208,8 @@
     </row>
     <row r="85" spans="1:20" s="57" customFormat="1" ht="76.5" customHeight="1">
       <c r="A85" s="94" t="str">
-        <f t="shared" si="1"/>
-        <v>human triggering CDS rule 84</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 84</v>
       </c>
       <c r="B85" s="57" t="s">
         <v>13</v>
@@ -8258,8 +8258,8 @@
     </row>
     <row r="86" spans="1:20" ht="76.5" customHeight="1">
       <c r="A86" s="92" t="str">
-        <f t="shared" si="1"/>
-        <v>human triggering CDS rule 85</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 85</v>
       </c>
       <c r="B86" s="13" t="s">
         <v>13</v>
@@ -8303,8 +8303,8 @@
     </row>
     <row r="87" spans="1:20" ht="76.5" customHeight="1">
       <c r="A87" s="92" t="str">
-        <f t="shared" si="1"/>
-        <v>human triggering CDS rule 86</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 86</v>
       </c>
       <c r="B87" s="13" t="s">
         <v>13</v>
@@ -8348,8 +8348,8 @@
     </row>
     <row r="88" spans="1:20" ht="76.5" customHeight="1">
       <c r="A88" s="92" t="str">
-        <f t="shared" si="1"/>
-        <v>human triggering CDS rule 87</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 87</v>
       </c>
       <c r="B88" s="13" t="s">
         <v>13</v>
@@ -8393,8 +8393,8 @@
     </row>
     <row r="89" spans="1:20" ht="76.5" customHeight="1">
       <c r="A89" s="92" t="str">
-        <f t="shared" si="1"/>
-        <v>human triggering CDS rule 88</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 88</v>
       </c>
       <c r="B89" s="13" t="s">
         <v>13</v>
@@ -8438,8 +8438,8 @@
     </row>
     <row r="90" spans="1:20" s="12" customFormat="1" ht="76.5" customHeight="1">
       <c r="A90" s="93" t="str">
-        <f t="shared" si="1"/>
-        <v>human triggering CDS rule 89</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 89</v>
       </c>
       <c r="B90" s="12" t="s">
         <v>13</v>
@@ -8485,8 +8485,8 @@
     </row>
     <row r="91" spans="1:20" ht="76.5" customHeight="1">
       <c r="A91" s="92" t="str">
-        <f t="shared" si="1"/>
-        <v>human triggering CDS rule 90</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 90</v>
       </c>
       <c r="B91" s="13" t="s">
         <v>13</v>
@@ -8530,8 +8530,8 @@
     </row>
     <row r="92" spans="1:20" ht="76.5" customHeight="1">
       <c r="A92" s="92" t="str">
-        <f t="shared" si="1"/>
-        <v>human triggering CDS rule 91</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 91</v>
       </c>
       <c r="B92" s="13" t="s">
         <v>13</v>
@@ -8575,8 +8575,8 @@
     </row>
     <row r="93" spans="1:20" ht="76.5" customHeight="1">
       <c r="A93" s="92" t="str">
-        <f t="shared" si="1"/>
-        <v>human triggering CDS rule 92</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 92</v>
       </c>
       <c r="B93" s="13" t="s">
         <v>13</v>
@@ -8620,8 +8620,8 @@
     </row>
     <row r="94" spans="1:20" ht="76.5" customHeight="1">
       <c r="A94" s="92" t="str">
-        <f t="shared" si="1"/>
-        <v>human triggering CDS rule 93</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 93</v>
       </c>
       <c r="B94" s="13" t="s">
         <v>13</v>
@@ -8665,8 +8665,8 @@
     </row>
     <row r="95" spans="1:20" s="12" customFormat="1" ht="76.5" customHeight="1">
       <c r="A95" s="93" t="str">
-        <f t="shared" si="1"/>
-        <v>human triggering CDS rule 94</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 94</v>
       </c>
       <c r="B95" s="12" t="s">
         <v>13</v>
@@ -8712,8 +8712,8 @@
     </row>
     <row r="96" spans="1:20" ht="336">
       <c r="A96" s="92" t="str">
-        <f t="shared" si="1"/>
-        <v>human triggering CDS rule 95</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 95</v>
       </c>
       <c r="B96" s="13" t="s">
         <v>13</v>
@@ -8763,8 +8763,8 @@
     </row>
     <row r="97" spans="1:20" s="12" customFormat="1" ht="76.5" customHeight="1">
       <c r="A97" s="93" t="str">
-        <f t="shared" si="1"/>
-        <v>human triggering CDS rule 96</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 96</v>
       </c>
       <c r="B97" s="12" t="s">
         <v>13</v>
@@ -8816,8 +8816,8 @@
     </row>
     <row r="98" spans="1:20" ht="76.5" customHeight="1">
       <c r="A98" s="92" t="str">
-        <f t="shared" si="1"/>
-        <v>human triggering CDS rule 97</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 97</v>
       </c>
       <c r="B98" s="19" t="s">
         <v>13</v>
@@ -8864,8 +8864,8 @@
     </row>
     <row r="99" spans="1:20" ht="76.5" customHeight="1">
       <c r="A99" s="92" t="str">
-        <f t="shared" si="1"/>
-        <v>human triggering CDS rule 98</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 98</v>
       </c>
       <c r="B99" s="19" t="s">
         <v>13</v>
@@ -8912,8 +8912,8 @@
     </row>
     <row r="100" spans="1:20" s="12" customFormat="1" ht="76.5" customHeight="1">
       <c r="A100" s="93" t="str">
-        <f t="shared" si="1"/>
-        <v>human triggering CDS rule 99</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 99</v>
       </c>
       <c r="B100" s="25" t="s">
         <v>13</v>
@@ -8962,8 +8962,8 @@
     </row>
     <row r="101" spans="1:20" ht="76.5" customHeight="1">
       <c r="A101" s="92" t="str">
-        <f t="shared" si="1"/>
-        <v>human triggering CDS rule 100</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 100</v>
       </c>
       <c r="B101" s="19" t="s">
         <v>13</v>
@@ -9013,8 +9013,8 @@
     </row>
     <row r="102" spans="1:20" s="12" customFormat="1" ht="76.5" customHeight="1">
       <c r="A102" s="93" t="str">
-        <f t="shared" si="1"/>
-        <v>human triggering CDS rule 101</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 101</v>
       </c>
       <c r="B102" s="25" t="s">
         <v>13</v>
@@ -9066,8 +9066,8 @@
     </row>
     <row r="103" spans="1:20" ht="76.5" customHeight="1">
       <c r="A103" s="92" t="str">
-        <f t="shared" si="1"/>
-        <v>human triggering CDS rule 102</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 102</v>
       </c>
       <c r="B103" s="19" t="s">
         <v>13</v>
@@ -9114,8 +9114,8 @@
     </row>
     <row r="104" spans="1:20" ht="348">
       <c r="A104" s="92" t="str">
-        <f t="shared" si="1"/>
-        <v>human triggering CDS rule 103</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 103</v>
       </c>
       <c r="B104" s="19" t="s">
         <v>13</v>
@@ -9162,8 +9162,8 @@
     </row>
     <row r="105" spans="1:20" s="12" customFormat="1" ht="76.5" customHeight="1">
       <c r="A105" s="93" t="str">
-        <f t="shared" si="1"/>
-        <v>human triggering CDS rule 104</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 104</v>
       </c>
       <c r="B105" s="25" t="s">
         <v>13</v>
@@ -9215,8 +9215,8 @@
     </row>
     <row r="106" spans="1:20" ht="76.5" customHeight="1">
       <c r="A106" s="92" t="str">
-        <f t="shared" si="1"/>
-        <v>human triggering CDS rule 105</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 105</v>
       </c>
       <c r="B106" s="13" t="s">
         <v>13</v>
@@ -9263,8 +9263,8 @@
     </row>
     <row r="107" spans="1:20" ht="118.5" customHeight="1">
       <c r="A107" s="92" t="str">
-        <f t="shared" si="1"/>
-        <v>human triggering CDS rule 106</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 106</v>
       </c>
       <c r="B107" s="19" t="s">
         <v>13</v>
@@ -9311,8 +9311,8 @@
     </row>
     <row r="108" spans="1:20" s="12" customFormat="1" ht="76.5" customHeight="1">
       <c r="A108" s="93" t="str">
-        <f t="shared" si="1"/>
-        <v>human triggering CDS rule 107</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 107</v>
       </c>
       <c r="B108" s="25" t="s">
         <v>13</v>
@@ -9361,8 +9361,8 @@
     </row>
     <row r="109" spans="1:20" ht="76.5" customHeight="1">
       <c r="A109" s="92" t="str">
-        <f t="shared" si="1"/>
-        <v>human triggering CDS rule 108</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 108</v>
       </c>
       <c r="B109" s="19" t="s">
         <v>13</v>
@@ -9409,8 +9409,8 @@
     </row>
     <row r="110" spans="1:20" ht="132" customHeight="1">
       <c r="A110" s="92" t="str">
-        <f t="shared" si="1"/>
-        <v>human triggering CDS rule 109</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 109</v>
       </c>
       <c r="B110" s="19" t="s">
         <v>13</v>
@@ -9457,8 +9457,8 @@
     </row>
     <row r="111" spans="1:20" s="12" customFormat="1" ht="76.5" customHeight="1">
       <c r="A111" s="93" t="str">
-        <f t="shared" si="1"/>
-        <v>human triggering CDS rule 110</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 110</v>
       </c>
       <c r="B111" s="25" t="s">
         <v>13</v>
@@ -9507,8 +9507,8 @@
     </row>
     <row r="112" spans="1:20" ht="76.5" customHeight="1">
       <c r="A112" s="92" t="str">
-        <f t="shared" si="1"/>
-        <v>human triggering CDS rule 111</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 111</v>
       </c>
       <c r="B112" s="19" t="s">
         <v>13</v>
@@ -9552,8 +9552,8 @@
     </row>
     <row r="113" spans="1:20" ht="76.5" customHeight="1">
       <c r="A113" s="92" t="str">
-        <f t="shared" si="1"/>
-        <v>human triggering CDS rule 112</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 112</v>
       </c>
       <c r="B113" s="19" t="s">
         <v>13</v>
@@ -9597,8 +9597,8 @@
     </row>
     <row r="114" spans="1:20" ht="76.5" customHeight="1">
       <c r="A114" s="92" t="str">
-        <f t="shared" si="1"/>
-        <v>human triggering CDS rule 113</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 113</v>
       </c>
       <c r="B114" s="19" t="s">
         <v>13</v>
@@ -9642,8 +9642,8 @@
     </row>
     <row r="115" spans="1:20" ht="76.5" customHeight="1">
       <c r="A115" s="92" t="str">
-        <f t="shared" si="1"/>
-        <v>human triggering CDS rule 114</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 114</v>
       </c>
       <c r="B115" s="19" t="s">
         <v>13</v>
@@ -9687,8 +9687,8 @@
     </row>
     <row r="116" spans="1:20" s="12" customFormat="1" ht="76.5" customHeight="1">
       <c r="A116" s="93" t="str">
-        <f t="shared" si="1"/>
-        <v>human triggering CDS rule 115</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 115</v>
       </c>
       <c r="B116" s="25" t="s">
         <v>13</v>
@@ -9734,8 +9734,8 @@
     </row>
     <row r="117" spans="1:20" ht="76.5" customHeight="1">
       <c r="A117" s="92" t="str">
-        <f t="shared" si="1"/>
-        <v>human triggering CDS rule 116</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 116</v>
       </c>
       <c r="B117" s="13" t="s">
         <v>13</v>
@@ -9779,8 +9779,8 @@
     </row>
     <row r="118" spans="1:20" s="12" customFormat="1" ht="76.5" customHeight="1">
       <c r="A118" s="93" t="str">
-        <f t="shared" si="1"/>
-        <v>human triggering CDS rule 117</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 117</v>
       </c>
       <c r="B118" s="12" t="s">
         <v>13</v>
@@ -9828,8 +9828,8 @@
     </row>
     <row r="119" spans="1:20" ht="76.5" customHeight="1">
       <c r="A119" s="92" t="str">
-        <f t="shared" si="1"/>
-        <v>human triggering CDS rule 118</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 118</v>
       </c>
       <c r="B119" s="19" t="s">
         <v>13</v>
@@ -9876,8 +9876,8 @@
     </row>
     <row r="120" spans="1:20" ht="98.25" customHeight="1">
       <c r="A120" s="92" t="str">
-        <f t="shared" si="1"/>
-        <v>human triggering CDS rule 119</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 119</v>
       </c>
       <c r="B120" s="19" t="s">
         <v>13</v>
@@ -9924,8 +9924,8 @@
     </row>
     <row r="121" spans="1:20" s="12" customFormat="1" ht="76.5" customHeight="1">
       <c r="A121" s="93" t="str">
-        <f t="shared" si="1"/>
-        <v>human triggering CDS rule 120</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 120</v>
       </c>
       <c r="B121" s="25" t="s">
         <v>13</v>
@@ -9974,8 +9974,8 @@
     </row>
     <row r="122" spans="1:20" ht="76.5" customHeight="1">
       <c r="A122" s="92" t="str">
-        <f t="shared" si="1"/>
-        <v>human triggering CDS rule 121</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 121</v>
       </c>
       <c r="B122" s="19" t="s">
         <v>13</v>
@@ -10022,8 +10022,8 @@
     </row>
     <row r="123" spans="1:20" ht="76.5" customHeight="1">
       <c r="A123" s="92" t="str">
-        <f t="shared" si="1"/>
-        <v>human triggering CDS rule 122</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 122</v>
       </c>
       <c r="B123" s="19" t="s">
         <v>13</v>
@@ -10070,8 +10070,8 @@
     </row>
     <row r="124" spans="1:20" s="12" customFormat="1" ht="76.5" customHeight="1">
       <c r="A124" s="93" t="str">
-        <f t="shared" si="1"/>
-        <v>human triggering CDS rule 123</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 123</v>
       </c>
       <c r="B124" s="25" t="s">
         <v>13</v>
@@ -10120,8 +10120,8 @@
     </row>
     <row r="125" spans="1:20" ht="76.5" customHeight="1">
       <c r="A125" s="92" t="str">
-        <f t="shared" si="1"/>
-        <v>human triggering CDS rule 124</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 124</v>
       </c>
       <c r="B125" s="19" t="s">
         <v>13</v>
@@ -10168,8 +10168,8 @@
     </row>
     <row r="126" spans="1:20" ht="103.5" customHeight="1">
       <c r="A126" s="92" t="str">
-        <f t="shared" si="1"/>
-        <v>human triggering CDS rule 125</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 125</v>
       </c>
       <c r="B126" s="19" t="s">
         <v>13</v>
@@ -10216,8 +10216,8 @@
     </row>
     <row r="127" spans="1:20" s="12" customFormat="1" ht="76.5" customHeight="1">
       <c r="A127" s="93" t="str">
-        <f t="shared" si="1"/>
-        <v>human triggering CDS rule 126</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 126</v>
       </c>
       <c r="B127" s="25" t="s">
         <v>13</v>
@@ -10266,8 +10266,8 @@
     </row>
     <row r="128" spans="1:20" ht="76.5" customHeight="1">
       <c r="A128" s="92" t="str">
-        <f t="shared" si="1"/>
-        <v>human triggering CDS rule 127</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 127</v>
       </c>
       <c r="B128" s="13" t="s">
         <v>13</v>
@@ -10314,8 +10314,8 @@
     </row>
     <row r="129" spans="1:20" ht="105" customHeight="1">
       <c r="A129" s="92" t="str">
-        <f t="shared" si="1"/>
-        <v>human triggering CDS rule 128</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 128</v>
       </c>
       <c r="B129" s="13" t="s">
         <v>13</v>
@@ -10362,8 +10362,8 @@
     </row>
     <row r="130" spans="1:20" s="12" customFormat="1" ht="76.5" customHeight="1">
       <c r="A130" s="93" t="str">
-        <f t="shared" ref="A130:A193" si="2">"human triggering CDS rule " &amp; (ROW() - 1)</f>
-        <v>human triggering CDS rule 129</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 129</v>
       </c>
       <c r="B130" s="12" t="s">
         <v>13</v>
@@ -10412,8 +10412,8 @@
     </row>
     <row r="131" spans="1:20" ht="76.5" customHeight="1">
       <c r="A131" s="92" t="str">
-        <f t="shared" si="2"/>
-        <v>human triggering CDS rule 130</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 130</v>
       </c>
       <c r="B131" s="19" t="s">
         <v>13</v>
@@ -10457,8 +10457,8 @@
     </row>
     <row r="132" spans="1:20" ht="76.5" customHeight="1">
       <c r="A132" s="92" t="str">
-        <f t="shared" si="2"/>
-        <v>human triggering CDS rule 131</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 131</v>
       </c>
       <c r="B132" s="19" t="s">
         <v>13</v>
@@ -10502,8 +10502,8 @@
     </row>
     <row r="133" spans="1:20" ht="76.5" customHeight="1">
       <c r="A133" s="92" t="str">
-        <f t="shared" si="2"/>
-        <v>human triggering CDS rule 132</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 132</v>
       </c>
       <c r="B133" s="19" t="s">
         <v>13</v>
@@ -10547,8 +10547,8 @@
     </row>
     <row r="134" spans="1:20" ht="76.5" customHeight="1">
       <c r="A134" s="92" t="str">
-        <f t="shared" si="2"/>
-        <v>human triggering CDS rule 133</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 133</v>
       </c>
       <c r="B134" s="19" t="s">
         <v>13</v>
@@ -10592,8 +10592,8 @@
     </row>
     <row r="135" spans="1:20" s="12" customFormat="1" ht="76.5" customHeight="1">
       <c r="A135" s="93" t="str">
-        <f t="shared" si="2"/>
-        <v>human triggering CDS rule 134</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 134</v>
       </c>
       <c r="B135" s="25" t="s">
         <v>13</v>
@@ -10639,8 +10639,8 @@
     </row>
     <row r="136" spans="1:20" ht="76.5" customHeight="1">
       <c r="A136" s="92" t="str">
-        <f t="shared" si="2"/>
-        <v>human triggering CDS rule 135</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 135</v>
       </c>
       <c r="B136" s="19" t="s">
         <v>13</v>
@@ -10687,8 +10687,8 @@
     </row>
     <row r="137" spans="1:20" ht="98.25" customHeight="1">
       <c r="A137" s="92" t="str">
-        <f t="shared" si="2"/>
-        <v>human triggering CDS rule 136</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 136</v>
       </c>
       <c r="B137" s="19" t="s">
         <v>13</v>
@@ -10735,8 +10735,8 @@
     </row>
     <row r="138" spans="1:20" s="12" customFormat="1" ht="76.5" customHeight="1">
       <c r="A138" s="93" t="str">
-        <f t="shared" si="2"/>
-        <v>human triggering CDS rule 137</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 137</v>
       </c>
       <c r="B138" s="25" t="s">
         <v>13</v>
@@ -10785,8 +10785,8 @@
     </row>
     <row r="139" spans="1:20" ht="108" customHeight="1">
       <c r="A139" s="92" t="str">
-        <f t="shared" si="2"/>
-        <v>human triggering CDS rule 138</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 138</v>
       </c>
       <c r="B139" s="13" t="s">
         <v>13</v>
@@ -10833,8 +10833,8 @@
     </row>
     <row r="140" spans="1:20" ht="120" customHeight="1">
       <c r="A140" s="92" t="str">
-        <f t="shared" si="2"/>
-        <v>human triggering CDS rule 139</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 139</v>
       </c>
       <c r="B140" s="13" t="s">
         <v>13</v>
@@ -10881,8 +10881,8 @@
     </row>
     <row r="141" spans="1:20" s="12" customFormat="1" ht="98.25" customHeight="1">
       <c r="A141" s="93" t="str">
-        <f t="shared" si="2"/>
-        <v>human triggering CDS rule 140</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 140</v>
       </c>
       <c r="B141" s="12" t="s">
         <v>13</v>
@@ -10934,8 +10934,8 @@
     </row>
     <row r="142" spans="1:20" ht="76.5" customHeight="1">
       <c r="A142" s="92" t="str">
-        <f t="shared" si="2"/>
-        <v>human triggering CDS rule 141</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 141</v>
       </c>
       <c r="B142" s="19" t="s">
         <v>13</v>
@@ -10982,8 +10982,8 @@
     </row>
     <row r="143" spans="1:20" ht="312">
       <c r="A143" s="92" t="str">
-        <f t="shared" si="2"/>
-        <v>human triggering CDS rule 142</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 142</v>
       </c>
       <c r="B143" s="19" t="s">
         <v>13</v>
@@ -11030,8 +11030,8 @@
     </row>
     <row r="144" spans="1:20" s="12" customFormat="1" ht="76.5" customHeight="1">
       <c r="A144" s="93" t="str">
-        <f t="shared" si="2"/>
-        <v>human triggering CDS rule 143</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 143</v>
       </c>
       <c r="B144" s="25" t="s">
         <v>13</v>
@@ -11083,8 +11083,8 @@
     </row>
     <row r="145" spans="1:20" ht="76.5" customHeight="1">
       <c r="A145" s="92" t="str">
-        <f t="shared" si="2"/>
-        <v>human triggering CDS rule 144</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 144</v>
       </c>
       <c r="B145" s="19" t="s">
         <v>13</v>
@@ -11131,8 +11131,8 @@
     </row>
     <row r="146" spans="1:20" ht="312">
       <c r="A146" s="92" t="str">
-        <f t="shared" si="2"/>
-        <v>human triggering CDS rule 145</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 145</v>
       </c>
       <c r="B146" s="19" t="s">
         <v>13</v>
@@ -11179,8 +11179,8 @@
     </row>
     <row r="147" spans="1:20" s="12" customFormat="1" ht="76.5" customHeight="1">
       <c r="A147" s="93" t="str">
-        <f t="shared" si="2"/>
-        <v>human triggering CDS rule 146</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 146</v>
       </c>
       <c r="B147" s="25" t="s">
         <v>13</v>
@@ -11232,8 +11232,8 @@
     </row>
     <row r="148" spans="1:20" ht="76.5" customHeight="1">
       <c r="A148" s="92" t="str">
-        <f t="shared" si="2"/>
-        <v>human triggering CDS rule 147</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 147</v>
       </c>
       <c r="B148" s="19" t="s">
         <v>13</v>
@@ -11280,8 +11280,8 @@
     </row>
     <row r="149" spans="1:20" ht="85.9" customHeight="1">
       <c r="A149" s="92" t="str">
-        <f t="shared" si="2"/>
-        <v>human triggering CDS rule 148</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 148</v>
       </c>
       <c r="B149" s="19" t="s">
         <v>13</v>
@@ -11328,8 +11328,8 @@
     </row>
     <row r="150" spans="1:20" s="12" customFormat="1" ht="76.5" customHeight="1">
       <c r="A150" s="93" t="str">
-        <f t="shared" si="2"/>
-        <v>human triggering CDS rule 149</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 149</v>
       </c>
       <c r="B150" s="25" t="s">
         <v>13</v>
@@ -11381,8 +11381,8 @@
     </row>
     <row r="151" spans="1:20" ht="76.5" customHeight="1">
       <c r="A151" s="92" t="str">
-        <f t="shared" si="2"/>
-        <v>human triggering CDS rule 150</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 150</v>
       </c>
       <c r="B151" s="19" t="s">
         <v>13</v>
@@ -11429,8 +11429,8 @@
     </row>
     <row r="152" spans="1:20" ht="76.5" customHeight="1">
       <c r="A152" s="92" t="str">
-        <f t="shared" si="2"/>
-        <v>human triggering CDS rule 151</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 151</v>
       </c>
       <c r="B152" s="19" t="s">
         <v>13</v>
@@ -11477,8 +11477,8 @@
     </row>
     <row r="153" spans="1:20" s="12" customFormat="1" ht="76.5" customHeight="1">
       <c r="A153" s="93" t="str">
-        <f t="shared" si="2"/>
-        <v>human triggering CDS rule 152</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 152</v>
       </c>
       <c r="B153" s="25" t="s">
         <v>13</v>
@@ -11530,8 +11530,8 @@
     </row>
     <row r="154" spans="1:20" ht="76.5" customHeight="1">
       <c r="A154" s="92" t="str">
-        <f t="shared" si="2"/>
-        <v>human triggering CDS rule 153</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 153</v>
       </c>
       <c r="B154" s="19" t="s">
         <v>13</v>
@@ -11578,8 +11578,8 @@
     </row>
     <row r="155" spans="1:20" ht="76.5" customHeight="1">
       <c r="A155" s="92" t="str">
-        <f t="shared" si="2"/>
-        <v>human triggering CDS rule 154</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 154</v>
       </c>
       <c r="B155" s="19" t="s">
         <v>13</v>
@@ -11626,8 +11626,8 @@
     </row>
     <row r="156" spans="1:20" s="12" customFormat="1" ht="76.5" customHeight="1">
       <c r="A156" s="93" t="str">
-        <f t="shared" si="2"/>
-        <v>human triggering CDS rule 155</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 155</v>
       </c>
       <c r="B156" s="25" t="s">
         <v>13</v>
@@ -11679,8 +11679,8 @@
     </row>
     <row r="157" spans="1:20" ht="76.5" customHeight="1">
       <c r="A157" s="92" t="str">
-        <f t="shared" si="2"/>
-        <v>human triggering CDS rule 156</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 156</v>
       </c>
       <c r="B157" s="19" t="s">
         <v>13</v>
@@ -11727,8 +11727,8 @@
     </row>
     <row r="158" spans="1:20" ht="76.5" customHeight="1">
       <c r="A158" s="92" t="str">
-        <f t="shared" si="2"/>
-        <v>human triggering CDS rule 157</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 157</v>
       </c>
       <c r="B158" s="19" t="s">
         <v>13</v>
@@ -11775,8 +11775,8 @@
     </row>
     <row r="159" spans="1:20" s="12" customFormat="1" ht="76.5" customHeight="1">
       <c r="A159" s="93" t="str">
-        <f t="shared" si="2"/>
-        <v>human triggering CDS rule 158</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 158</v>
       </c>
       <c r="B159" s="25" t="s">
         <v>13</v>
@@ -11828,8 +11828,8 @@
     </row>
     <row r="160" spans="1:20" ht="76.5" customHeight="1">
       <c r="A160" s="92" t="str">
-        <f t="shared" si="2"/>
-        <v>human triggering CDS rule 159</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 159</v>
       </c>
       <c r="B160" s="19" t="s">
         <v>13</v>
@@ -11876,8 +11876,8 @@
     </row>
     <row r="161" spans="1:20" ht="312">
       <c r="A161" s="92" t="str">
-        <f t="shared" si="2"/>
-        <v>human triggering CDS rule 160</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 160</v>
       </c>
       <c r="B161" s="19" t="s">
         <v>13</v>
@@ -11924,8 +11924,8 @@
     </row>
     <row r="162" spans="1:20" s="12" customFormat="1" ht="76.5" customHeight="1">
       <c r="A162" s="93" t="str">
-        <f t="shared" si="2"/>
-        <v>human triggering CDS rule 161</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 161</v>
       </c>
       <c r="B162" s="25" t="s">
         <v>13</v>
@@ -11977,8 +11977,8 @@
     </row>
     <row r="163" spans="1:20" ht="76.5" customHeight="1">
       <c r="A163" s="92" t="str">
-        <f t="shared" si="2"/>
-        <v>human triggering CDS rule 162</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 162</v>
       </c>
       <c r="B163" s="19" t="s">
         <v>13</v>
@@ -12025,8 +12025,8 @@
     </row>
     <row r="164" spans="1:20" ht="76.5" customHeight="1">
       <c r="A164" s="92" t="str">
-        <f t="shared" si="2"/>
-        <v>human triggering CDS rule 163</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 163</v>
       </c>
       <c r="B164" s="19" t="s">
         <v>13</v>
@@ -12073,8 +12073,8 @@
     </row>
     <row r="165" spans="1:20" s="12" customFormat="1" ht="76.5" customHeight="1">
       <c r="A165" s="93" t="str">
-        <f t="shared" si="2"/>
-        <v>human triggering CDS rule 164</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 164</v>
       </c>
       <c r="B165" s="25" t="s">
         <v>13</v>
@@ -12126,8 +12126,8 @@
     </row>
     <row r="166" spans="1:20" s="57" customFormat="1" ht="76.5" customHeight="1">
       <c r="A166" s="94" t="str">
-        <f t="shared" si="2"/>
-        <v>human triggering CDS rule 165</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 165</v>
       </c>
       <c r="B166" s="61" t="s">
         <v>13</v>
@@ -12173,8 +12173,8 @@
     </row>
     <row r="167" spans="1:20" ht="76.5" customHeight="1">
       <c r="A167" s="92" t="str">
-        <f t="shared" si="2"/>
-        <v>human triggering CDS rule 166</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 166</v>
       </c>
       <c r="B167" s="19" t="s">
         <v>13</v>
@@ -12221,8 +12221,8 @@
     </row>
     <row r="168" spans="1:20" ht="76.5" customHeight="1">
       <c r="A168" s="92" t="str">
-        <f t="shared" si="2"/>
-        <v>human triggering CDS rule 167</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 167</v>
       </c>
       <c r="B168" s="19" t="s">
         <v>13</v>
@@ -12269,8 +12269,8 @@
     </row>
     <row r="169" spans="1:20" s="12" customFormat="1" ht="76.5" customHeight="1">
       <c r="A169" s="93" t="str">
-        <f t="shared" si="2"/>
-        <v>human triggering CDS rule 168</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 168</v>
       </c>
       <c r="B169" s="25" t="s">
         <v>13</v>
@@ -12322,8 +12322,8 @@
     </row>
     <row r="170" spans="1:20" ht="76.5" customHeight="1">
       <c r="A170" s="92" t="str">
-        <f t="shared" si="2"/>
-        <v>human triggering CDS rule 169</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 169</v>
       </c>
       <c r="B170" s="19" t="s">
         <v>13</v>
@@ -12370,8 +12370,8 @@
     </row>
     <row r="171" spans="1:20" ht="76.5" customHeight="1">
       <c r="A171" s="92" t="str">
-        <f t="shared" si="2"/>
-        <v>human triggering CDS rule 170</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 170</v>
       </c>
       <c r="B171" s="19" t="s">
         <v>13</v>
@@ -12418,8 +12418,8 @@
     </row>
     <row r="172" spans="1:20" s="12" customFormat="1" ht="76.5" customHeight="1">
       <c r="A172" s="93" t="str">
-        <f t="shared" si="2"/>
-        <v>human triggering CDS rule 171</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 171</v>
       </c>
       <c r="B172" s="25" t="s">
         <v>13</v>
@@ -12471,8 +12471,8 @@
     </row>
     <row r="173" spans="1:20" ht="76.5" customHeight="1">
       <c r="A173" s="92" t="str">
-        <f t="shared" si="2"/>
-        <v>human triggering CDS rule 172</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 172</v>
       </c>
       <c r="B173" s="19" t="s">
         <v>13</v>
@@ -12519,8 +12519,8 @@
     </row>
     <row r="174" spans="1:20" ht="76.5" customHeight="1">
       <c r="A174" s="92" t="str">
-        <f t="shared" si="2"/>
-        <v>human triggering CDS rule 173</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 173</v>
       </c>
       <c r="B174" s="19" t="s">
         <v>13</v>
@@ -12567,8 +12567,8 @@
     </row>
     <row r="175" spans="1:20" s="12" customFormat="1" ht="76.5" customHeight="1">
       <c r="A175" s="93" t="str">
-        <f t="shared" si="2"/>
-        <v>human triggering CDS rule 174</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 174</v>
       </c>
       <c r="B175" s="25" t="s">
         <v>13</v>
@@ -12620,8 +12620,8 @@
     </row>
     <row r="176" spans="1:20" ht="76.5" customHeight="1">
       <c r="A176" s="92" t="str">
-        <f t="shared" si="2"/>
-        <v>human triggering CDS rule 175</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 175</v>
       </c>
       <c r="B176" s="19" t="s">
         <v>13</v>
@@ -12668,8 +12668,8 @@
     </row>
     <row r="177" spans="1:20" ht="76.5" customHeight="1">
       <c r="A177" s="92" t="str">
-        <f t="shared" si="2"/>
-        <v>human triggering CDS rule 176</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 176</v>
       </c>
       <c r="B177" s="19" t="s">
         <v>13</v>
@@ -12716,8 +12716,8 @@
     </row>
     <row r="178" spans="1:20" s="12" customFormat="1" ht="76.5" customHeight="1">
       <c r="A178" s="93" t="str">
-        <f t="shared" si="2"/>
-        <v>human triggering CDS rule 177</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 177</v>
       </c>
       <c r="B178" s="25" t="s">
         <v>13</v>
@@ -12769,8 +12769,8 @@
     </row>
     <row r="179" spans="1:20" ht="76.5" customHeight="1">
       <c r="A179" s="92" t="str">
-        <f t="shared" si="2"/>
-        <v>human triggering CDS rule 178</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 178</v>
       </c>
       <c r="B179" s="19" t="s">
         <v>13</v>
@@ -12817,8 +12817,8 @@
     </row>
     <row r="180" spans="1:20" ht="76.5" customHeight="1">
       <c r="A180" s="92" t="str">
-        <f t="shared" si="2"/>
-        <v>human triggering CDS rule 179</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 179</v>
       </c>
       <c r="B180" s="19" t="s">
         <v>13</v>
@@ -12865,8 +12865,8 @@
     </row>
     <row r="181" spans="1:20" s="12" customFormat="1" ht="76.5" customHeight="1">
       <c r="A181" s="93" t="str">
-        <f t="shared" si="2"/>
-        <v>human triggering CDS rule 180</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 180</v>
       </c>
       <c r="B181" s="25" t="s">
         <v>13</v>
@@ -12918,8 +12918,8 @@
     </row>
     <row r="182" spans="1:20" ht="76.5" customHeight="1">
       <c r="A182" s="92" t="str">
-        <f t="shared" si="2"/>
-        <v>human triggering CDS rule 181</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 181</v>
       </c>
       <c r="B182" s="19" t="s">
         <v>13</v>
@@ -12966,8 +12966,8 @@
     </row>
     <row r="183" spans="1:20" ht="76.5" customHeight="1">
       <c r="A183" s="92" t="str">
-        <f t="shared" si="2"/>
-        <v>human triggering CDS rule 182</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 182</v>
       </c>
       <c r="B183" s="19" t="s">
         <v>13</v>
@@ -13014,8 +13014,8 @@
     </row>
     <row r="184" spans="1:20" s="12" customFormat="1" ht="76.5" customHeight="1">
       <c r="A184" s="93" t="str">
-        <f t="shared" si="2"/>
-        <v>human triggering CDS rule 183</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 183</v>
       </c>
       <c r="B184" s="25" t="s">
         <v>13</v>
@@ -13067,8 +13067,8 @@
     </row>
     <row r="185" spans="1:20" ht="76.5" customHeight="1">
       <c r="A185" s="92" t="str">
-        <f t="shared" si="2"/>
-        <v>human triggering CDS rule 184</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 184</v>
       </c>
       <c r="B185" s="19" t="s">
         <v>13</v>
@@ -13115,8 +13115,8 @@
     </row>
     <row r="186" spans="1:20" ht="76.5" customHeight="1">
       <c r="A186" s="92" t="str">
-        <f t="shared" si="2"/>
-        <v>human triggering CDS rule 185</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 185</v>
       </c>
       <c r="B186" s="19" t="s">
         <v>13</v>
@@ -13163,8 +13163,8 @@
     </row>
     <row r="187" spans="1:20" s="12" customFormat="1" ht="76.5" customHeight="1">
       <c r="A187" s="93" t="str">
-        <f t="shared" si="2"/>
-        <v>human triggering CDS rule 186</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 186</v>
       </c>
       <c r="B187" s="25" t="s">
         <v>13</v>
@@ -13216,8 +13216,8 @@
     </row>
     <row r="188" spans="1:20" ht="76.5" customHeight="1">
       <c r="A188" s="92" t="str">
-        <f t="shared" si="2"/>
-        <v>human triggering CDS rule 187</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 187</v>
       </c>
       <c r="B188" s="19" t="s">
         <v>13</v>
@@ -13264,8 +13264,8 @@
     </row>
     <row r="189" spans="1:20" ht="76.5" customHeight="1">
       <c r="A189" s="92" t="str">
-        <f t="shared" si="2"/>
-        <v>human triggering CDS rule 188</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 188</v>
       </c>
       <c r="B189" s="19" t="s">
         <v>13</v>
@@ -13312,8 +13312,8 @@
     </row>
     <row r="190" spans="1:20" s="12" customFormat="1" ht="76.5" customHeight="1">
       <c r="A190" s="93" t="str">
-        <f t="shared" si="2"/>
-        <v>human triggering CDS rule 189</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 189</v>
       </c>
       <c r="B190" s="25" t="s">
         <v>13</v>
@@ -13365,8 +13365,8 @@
     </row>
     <row r="191" spans="1:20" ht="76.5" customHeight="1">
       <c r="A191" s="92" t="str">
-        <f t="shared" si="2"/>
-        <v>human triggering CDS rule 190</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 190</v>
       </c>
       <c r="B191" s="19" t="s">
         <v>13</v>
@@ -13413,8 +13413,8 @@
     </row>
     <row r="192" spans="1:20" ht="76.5" customHeight="1">
       <c r="A192" s="92" t="str">
-        <f t="shared" si="2"/>
-        <v>human triggering CDS rule 191</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 191</v>
       </c>
       <c r="B192" s="19" t="s">
         <v>13</v>
@@ -13461,8 +13461,8 @@
     </row>
     <row r="193" spans="1:20" s="12" customFormat="1" ht="76.5" customHeight="1">
       <c r="A193" s="93" t="str">
-        <f t="shared" si="2"/>
-        <v>human triggering CDS rule 192</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 192</v>
       </c>
       <c r="B193" s="25" t="s">
         <v>13</v>
@@ -13511,8 +13511,8 @@
     </row>
     <row r="194" spans="1:20" ht="76.5" customHeight="1">
       <c r="A194" s="92" t="str">
-        <f t="shared" ref="A194:A253" si="3">"human triggering CDS rule " &amp; (ROW() - 1)</f>
-        <v>human triggering CDS rule 193</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 193</v>
       </c>
       <c r="B194" s="19" t="s">
         <v>13</v>
@@ -13556,8 +13556,8 @@
     </row>
     <row r="195" spans="1:20" ht="76.5" customHeight="1">
       <c r="A195" s="92" t="str">
-        <f t="shared" si="3"/>
-        <v>human triggering CDS rule 194</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 194</v>
       </c>
       <c r="B195" s="19" t="s">
         <v>13</v>
@@ -13601,8 +13601,8 @@
     </row>
     <row r="196" spans="1:20" ht="76.5" customHeight="1">
       <c r="A196" s="92" t="str">
-        <f t="shared" si="3"/>
-        <v>human triggering CDS rule 195</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 195</v>
       </c>
       <c r="B196" s="19" t="s">
         <v>13</v>
@@ -13646,8 +13646,8 @@
     </row>
     <row r="197" spans="1:20" ht="76.5" customHeight="1">
       <c r="A197" s="92" t="str">
-        <f t="shared" si="3"/>
-        <v>human triggering CDS rule 196</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 196</v>
       </c>
       <c r="B197" s="19" t="s">
         <v>13</v>
@@ -13691,8 +13691,8 @@
     </row>
     <row r="198" spans="1:20" s="12" customFormat="1" ht="76.5" customHeight="1">
       <c r="A198" s="93" t="str">
-        <f t="shared" si="3"/>
-        <v>human triggering CDS rule 197</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 197</v>
       </c>
       <c r="B198" s="25" t="s">
         <v>13</v>
@@ -13738,8 +13738,8 @@
     </row>
     <row r="199" spans="1:20" ht="76.5" customHeight="1">
       <c r="A199" s="92" t="str">
-        <f t="shared" si="3"/>
-        <v>human triggering CDS rule 198</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 198</v>
       </c>
       <c r="B199" s="19" t="s">
         <v>13</v>
@@ -13783,8 +13783,8 @@
     </row>
     <row r="200" spans="1:20" s="12" customFormat="1" ht="76.5" customHeight="1">
       <c r="A200" s="93" t="str">
-        <f t="shared" si="3"/>
-        <v>human triggering CDS rule 199</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 199</v>
       </c>
       <c r="B200" s="25" t="s">
         <v>13</v>
@@ -13830,8 +13830,8 @@
     </row>
     <row r="201" spans="1:20" ht="76.5" customHeight="1">
       <c r="A201" s="92" t="str">
-        <f t="shared" si="3"/>
-        <v>human triggering CDS rule 200</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 200</v>
       </c>
       <c r="B201" s="19" t="s">
         <v>13</v>
@@ -13875,8 +13875,8 @@
     </row>
     <row r="202" spans="1:20" ht="76.5" customHeight="1">
       <c r="A202" s="92" t="str">
-        <f t="shared" si="3"/>
-        <v>human triggering CDS rule 201</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 201</v>
       </c>
       <c r="B202" s="19" t="s">
         <v>13</v>
@@ -13920,8 +13920,8 @@
     </row>
     <row r="203" spans="1:20" ht="76.5" customHeight="1">
       <c r="A203" s="92" t="str">
-        <f t="shared" si="3"/>
-        <v>human triggering CDS rule 202</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 202</v>
       </c>
       <c r="B203" s="19" t="s">
         <v>13</v>
@@ -13965,8 +13965,8 @@
     </row>
     <row r="204" spans="1:20" ht="76.5" customHeight="1">
       <c r="A204" s="92" t="str">
-        <f t="shared" si="3"/>
-        <v>human triggering CDS rule 203</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 203</v>
       </c>
       <c r="B204" s="19" t="s">
         <v>13</v>
@@ -14010,8 +14010,8 @@
     </row>
     <row r="205" spans="1:20" s="12" customFormat="1" ht="76.5" customHeight="1">
       <c r="A205" s="93" t="str">
-        <f t="shared" si="3"/>
-        <v>human triggering CDS rule 204</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 204</v>
       </c>
       <c r="B205" s="25" t="s">
         <v>13</v>
@@ -14057,8 +14057,8 @@
     </row>
     <row r="206" spans="1:20" ht="76.5" customHeight="1">
       <c r="A206" s="92" t="str">
-        <f t="shared" si="3"/>
-        <v>human triggering CDS rule 205</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 205</v>
       </c>
       <c r="B206" s="19" t="s">
         <v>13</v>
@@ -14102,8 +14102,8 @@
     </row>
     <row r="207" spans="1:20" s="12" customFormat="1" ht="76.5" customHeight="1">
       <c r="A207" s="93" t="str">
-        <f t="shared" si="3"/>
-        <v>human triggering CDS rule 206</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 206</v>
       </c>
       <c r="B207" s="25" t="s">
         <v>13</v>
@@ -14149,8 +14149,8 @@
     </row>
     <row r="208" spans="1:20" ht="76.5" customHeight="1">
       <c r="A208" s="92" t="str">
-        <f t="shared" si="3"/>
-        <v>human triggering CDS rule 207</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 207</v>
       </c>
       <c r="B208" s="19" t="s">
         <v>13</v>
@@ -14194,8 +14194,8 @@
     </row>
     <row r="209" spans="1:20" s="12" customFormat="1" ht="76.5" customHeight="1">
       <c r="A209" s="93" t="str">
-        <f t="shared" si="3"/>
-        <v>human triggering CDS rule 208</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 208</v>
       </c>
       <c r="B209" s="25" t="s">
         <v>13</v>
@@ -14241,8 +14241,8 @@
     </row>
     <row r="210" spans="1:20" ht="76.5" customHeight="1">
       <c r="A210" s="92" t="str">
-        <f t="shared" si="3"/>
-        <v>human triggering CDS rule 209</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 209</v>
       </c>
       <c r="B210" s="19" t="s">
         <v>13</v>
@@ -14286,8 +14286,8 @@
     </row>
     <row r="211" spans="1:20" s="12" customFormat="1" ht="76.5" customHeight="1">
       <c r="A211" s="93" t="str">
-        <f t="shared" si="3"/>
-        <v>human triggering CDS rule 210</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 210</v>
       </c>
       <c r="B211" s="25" t="s">
         <v>13</v>
@@ -14332,8 +14332,8 @@
     </row>
     <row r="212" spans="1:20" ht="76.5" customHeight="1">
       <c r="A212" s="92" t="str">
-        <f t="shared" si="3"/>
-        <v>human triggering CDS rule 211</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 211</v>
       </c>
       <c r="B212" s="19" t="s">
         <v>13</v>
@@ -14377,8 +14377,8 @@
     </row>
     <row r="213" spans="1:20" s="12" customFormat="1" ht="76.5" customHeight="1">
       <c r="A213" s="93" t="str">
-        <f t="shared" si="3"/>
-        <v>human triggering CDS rule 212</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 212</v>
       </c>
       <c r="B213" s="25" t="s">
         <v>13</v>
@@ -14423,8 +14423,8 @@
     </row>
     <row r="214" spans="1:20" ht="76.5" customHeight="1">
       <c r="A214" s="92" t="str">
-        <f t="shared" si="3"/>
-        <v>human triggering CDS rule 213</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 213</v>
       </c>
       <c r="B214" s="13" t="s">
         <v>13</v>
@@ -14469,8 +14469,8 @@
     </row>
     <row r="215" spans="1:20" ht="89.25" customHeight="1">
       <c r="A215" s="92" t="str">
-        <f t="shared" si="3"/>
-        <v>human triggering CDS rule 214</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 214</v>
       </c>
       <c r="B215" s="13" t="s">
         <v>13</v>
@@ -14515,8 +14515,8 @@
     </row>
     <row r="216" spans="1:20" s="12" customFormat="1" ht="76.5" customHeight="1">
       <c r="A216" s="93" t="str">
-        <f t="shared" si="3"/>
-        <v>human triggering CDS rule 215</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 215</v>
       </c>
       <c r="B216" s="12" t="s">
         <v>13</v>
@@ -14562,8 +14562,8 @@
     </row>
     <row r="217" spans="1:20" ht="76.5" customHeight="1">
       <c r="A217" s="92" t="str">
-        <f t="shared" si="3"/>
-        <v>human triggering CDS rule 216</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 216</v>
       </c>
       <c r="B217" s="19" t="s">
         <v>13</v>
@@ -14607,8 +14607,8 @@
     </row>
     <row r="218" spans="1:20" ht="76.5" customHeight="1">
       <c r="A218" s="92" t="str">
-        <f t="shared" si="3"/>
-        <v>human triggering CDS rule 217</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 217</v>
       </c>
       <c r="B218" s="19" t="s">
         <v>13</v>
@@ -14652,8 +14652,8 @@
     </row>
     <row r="219" spans="1:20" s="12" customFormat="1" ht="76.5" customHeight="1">
       <c r="A219" s="93" t="str">
-        <f t="shared" si="3"/>
-        <v>human triggering CDS rule 218</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 218</v>
       </c>
       <c r="B219" s="25" t="s">
         <v>13</v>
@@ -14698,8 +14698,8 @@
     </row>
     <row r="220" spans="1:20" ht="76.5" customHeight="1">
       <c r="A220" s="92" t="str">
-        <f t="shared" si="3"/>
-        <v>human triggering CDS rule 219</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 219</v>
       </c>
       <c r="B220" s="19" t="s">
         <v>13</v>
@@ -14743,8 +14743,8 @@
     </row>
     <row r="221" spans="1:20" ht="76.5" customHeight="1">
       <c r="A221" s="92" t="str">
-        <f t="shared" si="3"/>
-        <v>human triggering CDS rule 220</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 220</v>
       </c>
       <c r="B221" s="19" t="s">
         <v>13</v>
@@ -14788,8 +14788,8 @@
     </row>
     <row r="222" spans="1:20" s="12" customFormat="1" ht="76.5" customHeight="1">
       <c r="A222" s="93" t="str">
-        <f t="shared" si="3"/>
-        <v>human triggering CDS rule 221</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 221</v>
       </c>
       <c r="B222" s="25" t="s">
         <v>13</v>
@@ -14834,8 +14834,8 @@
     </row>
     <row r="223" spans="1:20" ht="76.5" customHeight="1">
       <c r="A223" s="92" t="str">
-        <f t="shared" si="3"/>
-        <v>human triggering CDS rule 222</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 222</v>
       </c>
       <c r="B223" s="19" t="s">
         <v>13</v>
@@ -14879,8 +14879,8 @@
     </row>
     <row r="224" spans="1:20" s="12" customFormat="1" ht="76.5" customHeight="1">
       <c r="A224" s="93" t="str">
-        <f t="shared" si="3"/>
-        <v>human triggering CDS rule 223</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 223</v>
       </c>
       <c r="B224" s="25" t="s">
         <v>13</v>
@@ -14925,8 +14925,8 @@
     </row>
     <row r="225" spans="1:20" ht="76.5" customHeight="1">
       <c r="A225" s="92" t="str">
-        <f t="shared" si="3"/>
-        <v>human triggering CDS rule 224</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 224</v>
       </c>
       <c r="B225" s="19" t="s">
         <v>13</v>
@@ -14973,8 +14973,8 @@
     </row>
     <row r="226" spans="1:20" ht="76.5" customHeight="1">
       <c r="A226" s="92" t="str">
-        <f t="shared" si="3"/>
-        <v>human triggering CDS rule 225</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 225</v>
       </c>
       <c r="B226" s="19" t="s">
         <v>13</v>
@@ -15021,8 +15021,8 @@
     </row>
     <row r="227" spans="1:20" ht="76.5" customHeight="1">
       <c r="A227" s="92" t="str">
-        <f t="shared" si="3"/>
-        <v>human triggering CDS rule 226</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 226</v>
       </c>
       <c r="B227" s="19" t="s">
         <v>13</v>
@@ -15069,8 +15069,8 @@
     </row>
     <row r="228" spans="1:20" s="12" customFormat="1" ht="76.5" customHeight="1">
       <c r="A228" s="93" t="str">
-        <f t="shared" si="3"/>
-        <v>human triggering CDS rule 227</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 227</v>
       </c>
       <c r="B228" s="25" t="s">
         <v>13</v>
@@ -15118,8 +15118,8 @@
     </row>
     <row r="229" spans="1:20" ht="76.5" customHeight="1">
       <c r="A229" s="92" t="str">
-        <f t="shared" si="3"/>
-        <v>human triggering CDS rule 228</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 228</v>
       </c>
       <c r="B229" s="13" t="s">
         <v>13</v>
@@ -15166,8 +15166,8 @@
     </row>
     <row r="230" spans="1:20" ht="76.5" customHeight="1">
       <c r="A230" s="92" t="str">
-        <f t="shared" si="3"/>
-        <v>human triggering CDS rule 229</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 229</v>
       </c>
       <c r="B230" s="13" t="s">
         <v>13</v>
@@ -15214,8 +15214,8 @@
     </row>
     <row r="231" spans="1:20" ht="76.5" customHeight="1">
       <c r="A231" s="92" t="str">
-        <f t="shared" si="3"/>
-        <v>human triggering CDS rule 230</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 230</v>
       </c>
       <c r="B231" s="13" t="s">
         <v>13</v>
@@ -15262,8 +15262,8 @@
     </row>
     <row r="232" spans="1:20" s="12" customFormat="1" ht="76.900000000000006" customHeight="1">
       <c r="A232" s="93" t="str">
-        <f t="shared" si="3"/>
-        <v>human triggering CDS rule 231</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 231</v>
       </c>
       <c r="B232" s="12" t="s">
         <v>13</v>
@@ -15311,8 +15311,8 @@
     </row>
     <row r="233" spans="1:20" ht="76.5" customHeight="1">
       <c r="A233" s="92" t="str">
-        <f t="shared" si="3"/>
-        <v>human triggering CDS rule 232</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 232</v>
       </c>
       <c r="B233" s="19" t="s">
         <v>13</v>
@@ -15359,8 +15359,8 @@
     </row>
     <row r="234" spans="1:20" ht="76.5" customHeight="1">
       <c r="A234" s="92" t="str">
-        <f t="shared" si="3"/>
-        <v>human triggering CDS rule 233</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 233</v>
       </c>
       <c r="B234" s="19" t="s">
         <v>13</v>
@@ -15407,8 +15407,8 @@
     </row>
     <row r="235" spans="1:20" ht="76.5" customHeight="1">
       <c r="A235" s="92" t="str">
-        <f t="shared" si="3"/>
-        <v>human triggering CDS rule 234</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 234</v>
       </c>
       <c r="B235" s="19" t="s">
         <v>13</v>
@@ -15455,8 +15455,8 @@
     </row>
     <row r="236" spans="1:20" s="12" customFormat="1" ht="76.5" customHeight="1">
       <c r="A236" s="93" t="str">
-        <f t="shared" si="3"/>
-        <v>human triggering CDS rule 235</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 235</v>
       </c>
       <c r="B236" s="25" t="s">
         <v>13</v>
@@ -15504,8 +15504,8 @@
     </row>
     <row r="237" spans="1:20" ht="76.5" customHeight="1">
       <c r="A237" s="92" t="str">
-        <f t="shared" si="3"/>
-        <v>human triggering CDS rule 236</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 236</v>
       </c>
       <c r="B237" s="13" t="s">
         <v>13</v>
@@ -15549,8 +15549,8 @@
     </row>
     <row r="238" spans="1:20" s="12" customFormat="1" ht="76.5" customHeight="1">
       <c r="A238" s="93" t="str">
-        <f t="shared" si="3"/>
-        <v>human triggering CDS rule 237</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 237</v>
       </c>
       <c r="B238" s="12" t="s">
         <v>13</v>
@@ -15595,8 +15595,8 @@
     </row>
     <row r="239" spans="1:20" ht="76.5" customHeight="1">
       <c r="A239" s="92" t="str">
-        <f t="shared" si="3"/>
-        <v>human triggering CDS rule 238</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 238</v>
       </c>
       <c r="B239" s="19" t="s">
         <v>13</v>
@@ -15640,8 +15640,8 @@
     </row>
     <row r="240" spans="1:20" s="12" customFormat="1" ht="76.5" customHeight="1">
       <c r="A240" s="93" t="str">
-        <f t="shared" si="3"/>
-        <v>human triggering CDS rule 239</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 239</v>
       </c>
       <c r="B240" s="25" t="s">
         <v>13</v>
@@ -15686,8 +15686,8 @@
     </row>
     <row r="241" spans="1:20" ht="76.5" customHeight="1">
       <c r="A241" s="92" t="str">
-        <f t="shared" si="3"/>
-        <v>human triggering CDS rule 240</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 240</v>
       </c>
       <c r="B241" s="19" t="s">
         <v>13</v>
@@ -15731,8 +15731,8 @@
     </row>
     <row r="242" spans="1:20" s="12" customFormat="1" ht="76.5" customHeight="1">
       <c r="A242" s="93" t="str">
-        <f t="shared" si="3"/>
-        <v>human triggering CDS rule 241</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 241</v>
       </c>
       <c r="B242" s="25" t="s">
         <v>13</v>
@@ -15777,8 +15777,8 @@
     </row>
     <row r="243" spans="1:20" ht="76.5" customHeight="1">
       <c r="A243" s="92" t="str">
-        <f t="shared" si="3"/>
-        <v>human triggering CDS rule 242</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 242</v>
       </c>
       <c r="B243" s="19" t="s">
         <v>13</v>
@@ -15822,8 +15822,8 @@
     </row>
     <row r="244" spans="1:20" ht="76.5" customHeight="1">
       <c r="A244" s="92" t="str">
-        <f t="shared" si="3"/>
-        <v>human triggering CDS rule 243</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 243</v>
       </c>
       <c r="B244" s="19" t="s">
         <v>13</v>
@@ -15867,8 +15867,8 @@
     </row>
     <row r="245" spans="1:20" ht="76.5" customHeight="1">
       <c r="A245" s="92" t="str">
-        <f t="shared" si="3"/>
-        <v>human triggering CDS rule 244</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 244</v>
       </c>
       <c r="B245" s="19" t="s">
         <v>13</v>
@@ -15912,8 +15912,8 @@
     </row>
     <row r="246" spans="1:20" ht="76.5" customHeight="1">
       <c r="A246" s="92" t="str">
-        <f t="shared" si="3"/>
-        <v>human triggering CDS rule 245</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 245</v>
       </c>
       <c r="B246" s="19" t="s">
         <v>13</v>
@@ -15957,8 +15957,8 @@
     </row>
     <row r="247" spans="1:20" ht="76.5" customHeight="1">
       <c r="A247" s="92" t="str">
-        <f t="shared" si="3"/>
-        <v>human triggering CDS rule 246</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 246</v>
       </c>
       <c r="B247" s="19" t="s">
         <v>13</v>
@@ -16002,8 +16002,8 @@
     </row>
     <row r="248" spans="1:20" ht="76.5" customHeight="1">
       <c r="A248" s="92" t="str">
-        <f t="shared" si="3"/>
-        <v>human triggering CDS rule 247</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 247</v>
       </c>
       <c r="B248" s="19" t="s">
         <v>13</v>
@@ -16047,8 +16047,8 @@
     </row>
     <row r="249" spans="1:20" ht="76.5" customHeight="1">
       <c r="A249" s="92" t="str">
-        <f t="shared" si="3"/>
-        <v>human triggering CDS rule 248</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 248</v>
       </c>
       <c r="B249" s="19" t="s">
         <v>13</v>
@@ -16092,8 +16092,8 @@
     </row>
     <row r="250" spans="1:20" ht="76.5" customHeight="1">
       <c r="A250" s="92" t="str">
-        <f t="shared" si="3"/>
-        <v>human triggering CDS rule 249</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 249</v>
       </c>
       <c r="B250" s="19" t="s">
         <v>13</v>
@@ -16137,8 +16137,8 @@
     </row>
     <row r="251" spans="1:20" ht="76.5" customHeight="1">
       <c r="A251" s="92" t="str">
-        <f t="shared" si="3"/>
-        <v>human triggering CDS rule 250</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 250</v>
       </c>
       <c r="B251" s="19" t="s">
         <v>13</v>
@@ -16182,8 +16182,8 @@
     </row>
     <row r="252" spans="1:20" ht="76.5" customHeight="1">
       <c r="A252" s="92" t="str">
-        <f t="shared" si="3"/>
-        <v>human triggering CDS rule 251</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 251</v>
       </c>
       <c r="B252" s="19" t="s">
         <v>13</v>
@@ -16227,8 +16227,8 @@
     </row>
     <row r="253" spans="1:20" ht="76.5" customHeight="1">
       <c r="A253" s="92" t="str">
-        <f t="shared" si="3"/>
-        <v>human triggering CDS rule 252</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 252</v>
       </c>
       <c r="B253" s="19" t="s">
         <v>13</v>
@@ -16272,8 +16272,8 @@
     </row>
     <row r="254" spans="1:20" ht="76.5" customHeight="1">
       <c r="A254" s="92" t="str">
-        <f t="shared" ref="A254:A300" si="4">"human triggering CDS rule " &amp; (ROW() - 1)</f>
-        <v>human triggering CDS rule 253</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 253</v>
       </c>
       <c r="B254" s="19" t="s">
         <v>13</v>
@@ -16317,8 +16317,8 @@
     </row>
     <row r="255" spans="1:20" ht="76.5" customHeight="1">
       <c r="A255" s="92" t="str">
-        <f t="shared" si="4"/>
-        <v>human triggering CDS rule 254</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 254</v>
       </c>
       <c r="B255" s="19" t="s">
         <v>13</v>
@@ -16362,8 +16362,8 @@
     </row>
     <row r="256" spans="1:20" ht="76.5" customHeight="1">
       <c r="A256" s="92" t="str">
-        <f t="shared" si="4"/>
-        <v>human triggering CDS rule 255</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 255</v>
       </c>
       <c r="B256" s="19" t="s">
         <v>13</v>
@@ -16407,8 +16407,8 @@
     </row>
     <row r="257" spans="1:20" ht="76.5" customHeight="1">
       <c r="A257" s="92" t="str">
-        <f t="shared" si="4"/>
-        <v>human triggering CDS rule 256</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 256</v>
       </c>
       <c r="B257" s="19" t="s">
         <v>13</v>
@@ -16452,8 +16452,8 @@
     </row>
     <row r="258" spans="1:20" s="12" customFormat="1" ht="76.5" customHeight="1">
       <c r="A258" s="93" t="str">
-        <f t="shared" si="4"/>
-        <v>human triggering CDS rule 257</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 257</v>
       </c>
       <c r="B258" s="25" t="s">
         <v>13</v>
@@ -16498,8 +16498,8 @@
     </row>
     <row r="259" spans="1:20" ht="76.5" customHeight="1">
       <c r="A259" s="92" t="str">
-        <f t="shared" si="4"/>
-        <v>human triggering CDS rule 258</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 258</v>
       </c>
       <c r="B259" s="13" t="s">
         <v>13</v>
@@ -16546,8 +16546,8 @@
     </row>
     <row r="260" spans="1:20" ht="76.5" customHeight="1">
       <c r="A260" s="92" t="str">
-        <f t="shared" si="4"/>
-        <v>human triggering CDS rule 259</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 259</v>
       </c>
       <c r="B260" s="13" t="s">
         <v>13</v>
@@ -16594,8 +16594,8 @@
     </row>
     <row r="261" spans="1:20" ht="76.5" customHeight="1">
       <c r="A261" s="92" t="str">
-        <f t="shared" si="4"/>
-        <v>human triggering CDS rule 260</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 260</v>
       </c>
       <c r="B261" s="13" t="s">
         <v>13</v>
@@ -16642,8 +16642,8 @@
     </row>
     <row r="262" spans="1:20" s="12" customFormat="1" ht="76.5" customHeight="1">
       <c r="A262" s="93" t="str">
-        <f t="shared" si="4"/>
-        <v>human triggering CDS rule 261</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 261</v>
       </c>
       <c r="B262" s="12" t="s">
         <v>13</v>
@@ -16691,8 +16691,8 @@
     </row>
     <row r="263" spans="1:20" ht="76.5" customHeight="1">
       <c r="A263" s="92" t="str">
-        <f t="shared" si="4"/>
-        <v>human triggering CDS rule 262</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 262</v>
       </c>
       <c r="B263" s="13" t="s">
         <v>13</v>
@@ -16737,8 +16737,8 @@
     </row>
     <row r="264" spans="1:20" ht="76.5" customHeight="1">
       <c r="A264" s="92" t="str">
-        <f t="shared" si="4"/>
-        <v>human triggering CDS rule 263</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 263</v>
       </c>
       <c r="B264" s="13" t="s">
         <v>13</v>
@@ -16783,8 +16783,8 @@
     </row>
     <row r="265" spans="1:20" ht="76.5" customHeight="1">
       <c r="A265" s="92" t="str">
-        <f t="shared" si="4"/>
-        <v>human triggering CDS rule 264</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 264</v>
       </c>
       <c r="B265" s="13" t="s">
         <v>13</v>
@@ -16829,8 +16829,8 @@
     </row>
     <row r="266" spans="1:20" s="12" customFormat="1" ht="76.5" customHeight="1">
       <c r="A266" s="93" t="str">
-        <f t="shared" si="4"/>
-        <v>human triggering CDS rule 265</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 265</v>
       </c>
       <c r="B266" s="12" t="s">
         <v>13</v>
@@ -16876,8 +16876,8 @@
     </row>
     <row r="267" spans="1:20" ht="76.5" customHeight="1">
       <c r="A267" s="92" t="str">
-        <f t="shared" si="4"/>
-        <v>human triggering CDS rule 266</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 266</v>
       </c>
       <c r="B267" s="13" t="s">
         <v>13</v>
@@ -16924,8 +16924,8 @@
     </row>
     <row r="268" spans="1:20" ht="76.5" customHeight="1">
       <c r="A268" s="92" t="str">
-        <f t="shared" si="4"/>
-        <v>human triggering CDS rule 267</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 267</v>
       </c>
       <c r="B268" s="13" t="s">
         <v>13</v>
@@ -16972,8 +16972,8 @@
     </row>
     <row r="269" spans="1:20" ht="76.5" customHeight="1">
       <c r="A269" s="92" t="str">
-        <f t="shared" si="4"/>
-        <v>human triggering CDS rule 268</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 268</v>
       </c>
       <c r="B269" s="13" t="s">
         <v>13</v>
@@ -17020,8 +17020,8 @@
     </row>
     <row r="270" spans="1:20" s="12" customFormat="1" ht="76.5" customHeight="1">
       <c r="A270" s="93" t="str">
-        <f t="shared" si="4"/>
-        <v>human triggering CDS rule 269</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 269</v>
       </c>
       <c r="B270" s="12" t="s">
         <v>13</v>
@@ -17069,8 +17069,8 @@
     </row>
     <row r="271" spans="1:20" ht="76.5" customHeight="1">
       <c r="A271" s="92" t="str">
-        <f t="shared" si="4"/>
-        <v>human triggering CDS rule 270</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 270</v>
       </c>
       <c r="B271" s="13" t="s">
         <v>13</v>
@@ -17115,8 +17115,8 @@
     </row>
     <row r="272" spans="1:20" ht="76.5" customHeight="1">
       <c r="A272" s="92" t="str">
-        <f t="shared" si="4"/>
-        <v>human triggering CDS rule 271</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 271</v>
       </c>
       <c r="B272" s="13" t="s">
         <v>13</v>
@@ -17161,8 +17161,8 @@
     </row>
     <row r="273" spans="1:20" ht="76.5" customHeight="1">
       <c r="A273" s="92" t="str">
-        <f t="shared" si="4"/>
-        <v>human triggering CDS rule 272</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 272</v>
       </c>
       <c r="B273" s="13" t="s">
         <v>13</v>
@@ -17207,8 +17207,8 @@
     </row>
     <row r="274" spans="1:20" s="12" customFormat="1" ht="76.5" customHeight="1">
       <c r="A274" s="93" t="str">
-        <f t="shared" si="4"/>
-        <v>human triggering CDS rule 273</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 273</v>
       </c>
       <c r="B274" s="12" t="s">
         <v>13</v>
@@ -17254,8 +17254,8 @@
     </row>
     <row r="275" spans="1:20" ht="76.5" customHeight="1">
       <c r="A275" s="92" t="str">
-        <f t="shared" si="4"/>
-        <v>human triggering CDS rule 274</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 274</v>
       </c>
       <c r="B275" s="13" t="s">
         <v>13</v>
@@ -17302,8 +17302,8 @@
     </row>
     <row r="276" spans="1:20" ht="76.5" customHeight="1">
       <c r="A276" s="92" t="str">
-        <f t="shared" si="4"/>
-        <v>human triggering CDS rule 275</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 275</v>
       </c>
       <c r="B276" s="13" t="s">
         <v>13</v>
@@ -17350,8 +17350,8 @@
     </row>
     <row r="277" spans="1:20" ht="76.5" customHeight="1">
       <c r="A277" s="92" t="str">
-        <f t="shared" si="4"/>
-        <v>human triggering CDS rule 276</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 276</v>
       </c>
       <c r="B277" s="13" t="s">
         <v>13</v>
@@ -17398,8 +17398,8 @@
     </row>
     <row r="278" spans="1:20" s="12" customFormat="1" ht="76.5" customHeight="1">
       <c r="A278" s="93" t="str">
-        <f t="shared" si="4"/>
-        <v>human triggering CDS rule 277</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 277</v>
       </c>
       <c r="B278" s="12" t="s">
         <v>13</v>
@@ -17447,8 +17447,8 @@
     </row>
     <row r="279" spans="1:20" ht="76.5" customHeight="1">
       <c r="A279" s="92" t="str">
-        <f t="shared" si="4"/>
-        <v>human triggering CDS rule 278</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 278</v>
       </c>
       <c r="B279" s="13" t="s">
         <v>13</v>
@@ -17493,8 +17493,8 @@
     </row>
     <row r="280" spans="1:20" ht="76.5" customHeight="1">
       <c r="A280" s="92" t="str">
-        <f t="shared" si="4"/>
-        <v>human triggering CDS rule 279</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 279</v>
       </c>
       <c r="B280" s="13" t="s">
         <v>13</v>
@@ -17539,8 +17539,8 @@
     </row>
     <row r="281" spans="1:20" ht="76.5" customHeight="1">
       <c r="A281" s="92" t="str">
-        <f t="shared" si="4"/>
-        <v>human triggering CDS rule 280</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 280</v>
       </c>
       <c r="B281" s="13" t="s">
         <v>13</v>
@@ -17585,8 +17585,8 @@
     </row>
     <row r="282" spans="1:20" s="12" customFormat="1" ht="76.5" customHeight="1">
       <c r="A282" s="93" t="str">
-        <f t="shared" si="4"/>
-        <v>human triggering CDS rule 281</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 281</v>
       </c>
       <c r="B282" s="12" t="s">
         <v>13</v>
@@ -17632,8 +17632,8 @@
     </row>
     <row r="283" spans="1:20" ht="76.5" customHeight="1">
       <c r="A283" s="92" t="str">
-        <f t="shared" si="4"/>
-        <v>human triggering CDS rule 282</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 282</v>
       </c>
       <c r="B283" s="13" t="s">
         <v>13</v>
@@ -17680,8 +17680,8 @@
     </row>
     <row r="284" spans="1:20" ht="76.5" customHeight="1">
       <c r="A284" s="92" t="str">
-        <f t="shared" si="4"/>
-        <v>human triggering CDS rule 283</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 283</v>
       </c>
       <c r="B284" s="13" t="s">
         <v>13</v>
@@ -17728,8 +17728,8 @@
     </row>
     <row r="285" spans="1:20" ht="76.5" customHeight="1">
       <c r="A285" s="92" t="str">
-        <f t="shared" si="4"/>
-        <v>human triggering CDS rule 284</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 284</v>
       </c>
       <c r="B285" s="13" t="s">
         <v>13</v>
@@ -17776,8 +17776,8 @@
     </row>
     <row r="286" spans="1:20" s="12" customFormat="1" ht="76.5" customHeight="1">
       <c r="A286" s="93" t="str">
-        <f t="shared" si="4"/>
-        <v>human triggering CDS rule 285</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 285</v>
       </c>
       <c r="B286" s="12" t="s">
         <v>13</v>
@@ -17825,8 +17825,8 @@
     </row>
     <row r="287" spans="1:20" ht="76.5" customHeight="1">
       <c r="A287" s="92" t="str">
-        <f t="shared" si="4"/>
-        <v>human triggering CDS rule 286</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 286</v>
       </c>
       <c r="B287" s="13" t="s">
         <v>13</v>
@@ -17871,8 +17871,8 @@
     </row>
     <row r="288" spans="1:20" ht="76.5" customHeight="1">
       <c r="A288" s="92" t="str">
-        <f t="shared" si="4"/>
-        <v>human triggering CDS rule 287</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 287</v>
       </c>
       <c r="B288" s="13" t="s">
         <v>13</v>
@@ -17917,8 +17917,8 @@
     </row>
     <row r="289" spans="1:20" ht="76.5" customHeight="1">
       <c r="A289" s="92" t="str">
-        <f t="shared" si="4"/>
-        <v>human triggering CDS rule 288</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 288</v>
       </c>
       <c r="B289" s="13" t="s">
         <v>13</v>
@@ -17963,8 +17963,8 @@
     </row>
     <row r="290" spans="1:20" s="12" customFormat="1" ht="76.5" customHeight="1">
       <c r="A290" s="93" t="str">
-        <f t="shared" si="4"/>
-        <v>human triggering CDS rule 289</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 289</v>
       </c>
       <c r="B290" s="12" t="s">
         <v>13</v>
@@ -18010,8 +18010,8 @@
     </row>
     <row r="291" spans="1:20" ht="76.5" customHeight="1">
       <c r="A291" s="92" t="str">
-        <f t="shared" si="4"/>
-        <v>human triggering CDS rule 290</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 290</v>
       </c>
       <c r="B291" s="13" t="s">
         <v>13</v>
@@ -18058,8 +18058,8 @@
     </row>
     <row r="292" spans="1:20" ht="76.5" customHeight="1">
       <c r="A292" s="92" t="str">
-        <f t="shared" si="4"/>
-        <v>human triggering CDS rule 291</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 291</v>
       </c>
       <c r="B292" s="13" t="s">
         <v>13</v>
@@ -18106,8 +18106,8 @@
     </row>
     <row r="293" spans="1:20" ht="76.5" customHeight="1">
       <c r="A293" s="92" t="str">
-        <f t="shared" si="4"/>
-        <v>human triggering CDS rule 292</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 292</v>
       </c>
       <c r="B293" s="13" t="s">
         <v>13</v>
@@ -18154,8 +18154,8 @@
     </row>
     <row r="294" spans="1:20" s="12" customFormat="1" ht="76.5" customHeight="1">
       <c r="A294" s="93" t="str">
-        <f t="shared" si="4"/>
-        <v>human triggering CDS rule 293</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 293</v>
       </c>
       <c r="B294" s="12" t="s">
         <v>13</v>
@@ -18203,8 +18203,8 @@
     </row>
     <row r="295" spans="1:20" ht="76.5" customHeight="1">
       <c r="A295" s="92" t="str">
-        <f t="shared" si="4"/>
-        <v>human triggering CDS rule 294</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 294</v>
       </c>
       <c r="B295" s="13" t="s">
         <v>13</v>
@@ -18249,8 +18249,8 @@
     </row>
     <row r="296" spans="1:20" ht="76.5" customHeight="1">
       <c r="A296" s="92" t="str">
-        <f t="shared" si="4"/>
-        <v>human triggering CDS rule 295</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 295</v>
       </c>
       <c r="B296" s="13" t="s">
         <v>13</v>
@@ -18295,8 +18295,8 @@
     </row>
     <row r="297" spans="1:20" ht="76.5" customHeight="1">
       <c r="A297" s="92" t="str">
-        <f t="shared" si="4"/>
-        <v>human triggering CDS rule 296</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 296</v>
       </c>
       <c r="B297" s="13" t="s">
         <v>13</v>
@@ -18341,8 +18341,8 @@
     </row>
     <row r="298" spans="1:20" s="12" customFormat="1" ht="76.5" customHeight="1">
       <c r="A298" s="93" t="str">
-        <f t="shared" si="4"/>
-        <v>human triggering CDS rule 297</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 297</v>
       </c>
       <c r="B298" s="12" t="s">
         <v>13</v>
@@ -18388,8 +18388,8 @@
     </row>
     <row r="299" spans="1:20" s="57" customFormat="1" ht="107.45" customHeight="1">
       <c r="A299" s="94" t="str">
-        <f t="shared" si="4"/>
-        <v>human triggering CDS rule 298</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 298</v>
       </c>
       <c r="B299" s="57" t="s">
         <v>13</v>
@@ -18435,8 +18435,8 @@
     </row>
     <row r="300" spans="1:20" s="57" customFormat="1" ht="76.5" customHeight="1">
       <c r="A300" s="94" t="str">
-        <f t="shared" si="4"/>
-        <v>human triggering CDS rule 299</v>
+        <f>"CDS rule " &amp; (ROW() - 1)</f>
+        <v>CDS rule 299</v>
       </c>
       <c r="B300" s="57" t="s">
         <v>13</v>
@@ -18545,7 +18545,7 @@
       <formula>NOT(ISERROR(SEARCH("completed", B118)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations xWindow="80" yWindow="704" count="4">
+  <dataValidations disablePrompts="1" xWindow="80" yWindow="704" count="4">
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Click and enter a value from the list of items" sqref="B2:B210">
       <formula1>"needs more work, completed, validated, deprecated,"</formula1>
     </dataValidation>
@@ -21826,9 +21826,9 @@
   <dimension ref="A1:K925"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>

--- a/knowledge-base/trunk/data/decision-support-rules/Pharmacogenomics decision support spreadsheet_v2.xlsx
+++ b/knowledge-base/trunk/data/decision-support-rules/Pharmacogenomics decision support spreadsheet_v2.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4449" uniqueCount="1129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4449" uniqueCount="1130">
   <si>
     <t>Rule status</t>
   </si>
@@ -3590,20 +3590,6 @@
   <si>
     <t>(negative strand): 
 (rs1050829_G)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">(has exactly 2 WHO_class_IV_G6PD_variant) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>or (has some WHO_class_ IV_G6PD_variant and has exactly 0 (WHO_class_I_G6PD_variant or WHO_class_II_G6PD_variant or WHO_class_III_G6PD_variant))</t>
-    </r>
   </si>
   <si>
     <r>
@@ -3620,6 +3606,23 @@
   </si>
   <si>
     <t>has exactly 2 (rs113993960_D or rs199826652_D)</t>
+  </si>
+  <si>
+    <t>disabled</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(has exactly 2 WHO_class_IV_G6PD_variant) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>or (has some WHO_class_IV_G6PD_variant and has exactly 0 (WHO_class_I_G6PD_variant or WHO_class_II_G6PD_variant or WHO_class_III_G6PD_variant))</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -4407,7 +4410,28 @@
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFB6D7A8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF93C47D"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -4888,9 +4912,9 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:U312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A299" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F303" sqref="F303"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A304" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D303" sqref="D303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="76.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14486,7 +14510,7 @@
       <c r="G176" s="13" t="s">
         <v>1019</v>
       </c>
-      <c r="H176" s="16" t="s">
+      <c r="H176" s="36" t="s">
         <v>410</v>
       </c>
       <c r="J176" s="13" t="s">
@@ -21243,7 +21267,7 @@
         <v>803</v>
       </c>
       <c r="F302" s="22" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="G302" s="13" t="s">
         <v>909</v>
@@ -21329,7 +21353,7 @@
         <v>CDS rule 303</v>
       </c>
       <c r="B304" s="17" t="s">
-        <v>13</v>
+        <v>1128</v>
       </c>
       <c r="C304" s="50" t="s">
         <v>819</v>
@@ -21341,7 +21365,7 @@
         <v>826</v>
       </c>
       <c r="F304" s="22" t="s">
-        <v>1126</v>
+        <v>1129</v>
       </c>
       <c r="G304" s="13" t="s">
         <v>822</v>
@@ -21377,7 +21401,7 @@
         <v>CDS rule 304</v>
       </c>
       <c r="B305" s="17" t="s">
-        <v>13</v>
+        <v>1128</v>
       </c>
       <c r="C305" s="50" t="s">
         <v>819</v>
@@ -21389,7 +21413,7 @@
         <v>827</v>
       </c>
       <c r="F305" s="115" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G305" s="13" t="s">
         <v>830</v>
@@ -21424,8 +21448,8 @@
         <f t="shared" si="4"/>
         <v>CDS rule 305</v>
       </c>
-      <c r="B306" s="104" t="s">
-        <v>13</v>
+      <c r="B306" s="17" t="s">
+        <v>1128</v>
       </c>
       <c r="C306" s="51" t="s">
         <v>819</v>
@@ -21761,46 +21785,46 @@
     </customSheetView>
   </customSheetViews>
   <conditionalFormatting sqref="B1:B312">
-    <cfRule type="containsText" dxfId="11" priority="10" stopIfTrue="1" operator="containsText" text="validated">
+    <cfRule type="containsText" dxfId="14" priority="10" stopIfTrue="1" operator="containsText" text="validated">
       <formula>NOT(ISERROR(SEARCH("validated", B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="11" stopIfTrue="1" operator="containsText" text="deprecated">
+    <cfRule type="containsText" dxfId="13" priority="11" stopIfTrue="1" operator="containsText" text="deprecated">
       <formula>NOT(ISERROR(SEARCH("deprecated", B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="12" stopIfTrue="1" operator="containsText" text="completed">
+    <cfRule type="containsText" dxfId="12" priority="12" stopIfTrue="1" operator="containsText" text="completed">
       <formula>NOT(ISERROR(SEARCH("completed", B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="containsText" dxfId="8" priority="7" stopIfTrue="1" operator="containsText" text="validated">
+    <cfRule type="containsText" dxfId="11" priority="7" stopIfTrue="1" operator="containsText" text="validated">
       <formula>NOT(ISERROR(SEARCH("validated", B22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="8" stopIfTrue="1" operator="containsText" text="deprecated">
+    <cfRule type="containsText" dxfId="10" priority="8" stopIfTrue="1" operator="containsText" text="deprecated">
       <formula>NOT(ISERROR(SEARCH("deprecated", B22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="9" stopIfTrue="1" operator="containsText" text="completed">
+    <cfRule type="containsText" dxfId="9" priority="9" stopIfTrue="1" operator="containsText" text="completed">
       <formula>NOT(ISERROR(SEARCH("completed", B22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21">
-    <cfRule type="containsText" dxfId="5" priority="4" stopIfTrue="1" operator="containsText" text="validated">
+    <cfRule type="containsText" dxfId="8" priority="4" stopIfTrue="1" operator="containsText" text="validated">
       <formula>NOT(ISERROR(SEARCH("validated", B21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" stopIfTrue="1" operator="containsText" text="deprecated">
+    <cfRule type="containsText" dxfId="7" priority="5" stopIfTrue="1" operator="containsText" text="deprecated">
       <formula>NOT(ISERROR(SEARCH("deprecated", B21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="6" stopIfTrue="1" operator="containsText" text="completed">
+    <cfRule type="containsText" dxfId="6" priority="6" stopIfTrue="1" operator="containsText" text="completed">
       <formula>NOT(ISERROR(SEARCH("completed", B21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B118">
-    <cfRule type="containsText" dxfId="2" priority="1" stopIfTrue="1" operator="containsText" text="validated">
+    <cfRule type="containsText" dxfId="5" priority="1" stopIfTrue="1" operator="containsText" text="validated">
       <formula>NOT(ISERROR(SEARCH("validated", B118)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" stopIfTrue="1" operator="containsText" text="deprecated">
+    <cfRule type="containsText" dxfId="4" priority="2" stopIfTrue="1" operator="containsText" text="deprecated">
       <formula>NOT(ISERROR(SEARCH("deprecated", B118)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" stopIfTrue="1" operator="containsText" text="completed">
+    <cfRule type="containsText" dxfId="3" priority="3" stopIfTrue="1" operator="containsText" text="completed">
       <formula>NOT(ISERROR(SEARCH("completed", B118)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21815,7 +21839,7 @@
       <formula1>TODAY()</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
-      <formula1>"needs more work, completed, validated, deprecated,"</formula1>
+      <formula1>"needs more work, completed, disabled, validated, deprecated,"</formula1>
     </dataValidation>
     <dataValidation type="textLength" operator="notEqual" showInputMessage="1" showErrorMessage="1" sqref="G1:G67 G72:G76 G199:G201 G136:G194 G117:G131 G79:G86 G91 G96:G112 G206:G257 G259:G1048576">
       <formula1>0</formula1>
@@ -24687,9 +24711,9 @@
   <dimension ref="A1:K925"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
